--- a/Odds/NBA/nba odds 2019-20.xlsx
+++ b/Odds/NBA/nba odds 2019-20.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\Documents\My Web Sites\Sportsbook Reviews Online\scoresoddsarchives\nba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5F9DB5-5DF4-4BE9-AEFC-502040F21024}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4685FB-F6ED-481A-A932-DA885E7F8915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{18B830BE-FE77-4DB6-A10C-48DE8E782004}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4477" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>GoldenState</t>
-  </si>
-  <si>
-    <t>PK</t>
   </si>
   <si>
     <t>N</t>
@@ -546,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB515FA-AC78-4561-B94F-9CE3A1CED250}">
-  <dimension ref="A1:M2177"/>
+  <dimension ref="A1:M2287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11345,7 +11342,7 @@
         <v>1110</v>
       </c>
       <c r="B264" s="2">
-        <v>33</v>
+        <v>533</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>13</v>
@@ -46834,7 +46831,7 @@
         <v>2.5</v>
       </c>
       <c r="K1129" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L1129" s="2">
         <v>-110</v>
@@ -48884,7 +48881,7 @@
         <v>1</v>
       </c>
       <c r="K1179" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L1179" s="2">
         <v>-115</v>
@@ -73399,7 +73396,7 @@
         <v>129</v>
       </c>
       <c r="J1777" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K1777" s="2">
         <v>2</v>
@@ -73607,7 +73604,7 @@
         <v>1</v>
       </c>
       <c r="K1782" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L1782" s="2">
         <v>-110</v>
@@ -80225,7 +80222,7 @@
         <v>701</v>
       </c>
       <c r="C1944" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1944" s="2" t="s">
         <v>36</v>
@@ -80266,7 +80263,7 @@
         <v>702</v>
       </c>
       <c r="C1945" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1945" s="2" t="s">
         <v>14</v>
@@ -80307,7 +80304,7 @@
         <v>703</v>
       </c>
       <c r="C1946" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1946" s="2" t="s">
         <v>18</v>
@@ -80348,7 +80345,7 @@
         <v>704</v>
       </c>
       <c r="C1947" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1947" s="2" t="s">
         <v>17</v>
@@ -80389,7 +80386,7 @@
         <v>705</v>
       </c>
       <c r="C1948" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1948" s="2" t="s">
         <v>22</v>
@@ -80430,7 +80427,7 @@
         <v>706</v>
       </c>
       <c r="C1949" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1949" s="2" t="s">
         <v>30</v>
@@ -80471,7 +80468,7 @@
         <v>707</v>
       </c>
       <c r="C1950" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1950" s="2" t="s">
         <v>27</v>
@@ -80512,7 +80509,7 @@
         <v>708</v>
       </c>
       <c r="C1951" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1951" s="2" t="s">
         <v>40</v>
@@ -80553,7 +80550,7 @@
         <v>709</v>
       </c>
       <c r="C1952" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1952" s="2" t="s">
         <v>38</v>
@@ -80594,7 +80591,7 @@
         <v>710</v>
       </c>
       <c r="C1953" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1953" s="2" t="s">
         <v>33</v>
@@ -80635,7 +80632,7 @@
         <v>711</v>
       </c>
       <c r="C1954" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1954" s="2" t="s">
         <v>25</v>
@@ -80676,7 +80673,7 @@
         <v>712</v>
       </c>
       <c r="C1955" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1955" s="2" t="s">
         <v>43</v>
@@ -80717,7 +80714,7 @@
         <v>713</v>
       </c>
       <c r="C1956" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1956" s="2" t="s">
         <v>37</v>
@@ -80758,7 +80755,7 @@
         <v>714</v>
       </c>
       <c r="C1957" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1957" s="2" t="s">
         <v>32</v>
@@ -80799,7 +80796,7 @@
         <v>715</v>
       </c>
       <c r="C1958" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1958" s="2" t="s">
         <v>44</v>
@@ -80840,7 +80837,7 @@
         <v>716</v>
       </c>
       <c r="C1959" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1959" s="2" t="s">
         <v>34</v>
@@ -80881,7 +80878,7 @@
         <v>717</v>
       </c>
       <c r="C1960" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1960" s="2" t="s">
         <v>28</v>
@@ -80922,7 +80919,7 @@
         <v>718</v>
       </c>
       <c r="C1961" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1961" s="2" t="s">
         <v>39</v>
@@ -80963,7 +80960,7 @@
         <v>719</v>
       </c>
       <c r="C1962" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1962" s="2" t="s">
         <v>36</v>
@@ -81004,7 +81001,7 @@
         <v>720</v>
       </c>
       <c r="C1963" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1963" s="2" t="s">
         <v>35</v>
@@ -81045,7 +81042,7 @@
         <v>721</v>
       </c>
       <c r="C1964" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1964" s="2" t="s">
         <v>14</v>
@@ -81086,7 +81083,7 @@
         <v>722</v>
       </c>
       <c r="C1965" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1965" s="2" t="s">
         <v>18</v>
@@ -81127,7 +81124,7 @@
         <v>723</v>
       </c>
       <c r="C1966" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1966" s="2" t="s">
         <v>26</v>
@@ -81168,7 +81165,7 @@
         <v>724</v>
       </c>
       <c r="C1967" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1967" s="2" t="s">
         <v>20</v>
@@ -81209,7 +81206,7 @@
         <v>725</v>
       </c>
       <c r="C1968" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1968" s="2" t="s">
         <v>17</v>
@@ -81250,7 +81247,7 @@
         <v>726</v>
       </c>
       <c r="C1969" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1969" s="2" t="s">
         <v>16</v>
@@ -81291,7 +81288,7 @@
         <v>727</v>
       </c>
       <c r="C1970" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1970" s="2" t="s">
         <v>33</v>
@@ -81332,7 +81329,7 @@
         <v>728</v>
       </c>
       <c r="C1971" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1971" s="2" t="s">
         <v>30</v>
@@ -81373,7 +81370,7 @@
         <v>729</v>
       </c>
       <c r="C1972" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1972" s="2" t="s">
         <v>40</v>
@@ -81414,7 +81411,7 @@
         <v>730</v>
       </c>
       <c r="C1973" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1973" s="2" t="s">
         <v>25</v>
@@ -81455,7 +81452,7 @@
         <v>731</v>
       </c>
       <c r="C1974" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1974" s="2" t="s">
         <v>32</v>
@@ -81496,7 +81493,7 @@
         <v>732</v>
       </c>
       <c r="C1975" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1975" s="2" t="s">
         <v>27</v>
@@ -81537,7 +81534,7 @@
         <v>733</v>
       </c>
       <c r="C1976" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1976" s="2" t="s">
         <v>37</v>
@@ -81578,7 +81575,7 @@
         <v>734</v>
       </c>
       <c r="C1977" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1977" s="2" t="s">
         <v>22</v>
@@ -81619,7 +81616,7 @@
         <v>735</v>
       </c>
       <c r="C1978" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1978" s="2" t="s">
         <v>43</v>
@@ -81660,7 +81657,7 @@
         <v>736</v>
       </c>
       <c r="C1979" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1979" s="2" t="s">
         <v>44</v>
@@ -81701,7 +81698,7 @@
         <v>737</v>
       </c>
       <c r="C1980" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1980" s="2" t="s">
         <v>34</v>
@@ -81742,7 +81739,7 @@
         <v>738</v>
       </c>
       <c r="C1981" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1981" s="2" t="s">
         <v>38</v>
@@ -81783,7 +81780,7 @@
         <v>739</v>
       </c>
       <c r="C1982" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1982" s="2" t="s">
         <v>16</v>
@@ -81824,7 +81821,7 @@
         <v>740</v>
       </c>
       <c r="C1983" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1983" s="2" t="s">
         <v>28</v>
@@ -81865,7 +81862,7 @@
         <v>741</v>
       </c>
       <c r="C1984" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1984" s="2" t="s">
         <v>20</v>
@@ -81906,7 +81903,7 @@
         <v>742</v>
       </c>
       <c r="C1985" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1985" s="2" t="s">
         <v>33</v>
@@ -81947,7 +81944,7 @@
         <v>743</v>
       </c>
       <c r="C1986" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1986" s="2" t="s">
         <v>39</v>
@@ -81988,7 +81985,7 @@
         <v>744</v>
       </c>
       <c r="C1987" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1987" s="2" t="s">
         <v>35</v>
@@ -82029,7 +82026,7 @@
         <v>745</v>
       </c>
       <c r="C1988" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1988" s="2" t="s">
         <v>27</v>
@@ -82070,7 +82067,7 @@
         <v>746</v>
       </c>
       <c r="C1989" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1989" s="2" t="s">
         <v>14</v>
@@ -82111,7 +82108,7 @@
         <v>747</v>
       </c>
       <c r="C1990" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1990" s="2" t="s">
         <v>32</v>
@@ -82152,7 +82149,7 @@
         <v>748</v>
       </c>
       <c r="C1991" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1991" s="2" t="s">
         <v>26</v>
@@ -82193,7 +82190,7 @@
         <v>749</v>
       </c>
       <c r="C1992" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1992" s="2" t="s">
         <v>17</v>
@@ -82234,7 +82231,7 @@
         <v>750</v>
       </c>
       <c r="C1993" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1993" s="2" t="s">
         <v>36</v>
@@ -82275,7 +82272,7 @@
         <v>751</v>
       </c>
       <c r="C1994" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1994" s="2" t="s">
         <v>30</v>
@@ -82316,7 +82313,7 @@
         <v>752</v>
       </c>
       <c r="C1995" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1995" s="2" t="s">
         <v>43</v>
@@ -82357,7 +82354,7 @@
         <v>753</v>
       </c>
       <c r="C1996" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1996" s="2" t="s">
         <v>34</v>
@@ -82398,7 +82395,7 @@
         <v>754</v>
       </c>
       <c r="C1997" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1997" s="2" t="s">
         <v>37</v>
@@ -82439,7 +82436,7 @@
         <v>755</v>
       </c>
       <c r="C1998" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1998" s="2" t="s">
         <v>38</v>
@@ -82480,7 +82477,7 @@
         <v>756</v>
       </c>
       <c r="C1999" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1999" s="2" t="s">
         <v>18</v>
@@ -82521,7 +82518,7 @@
         <v>757</v>
       </c>
       <c r="C2000" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2000" s="2" t="s">
         <v>22</v>
@@ -82562,7 +82559,7 @@
         <v>758</v>
       </c>
       <c r="C2001" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2001" s="2" t="s">
         <v>20</v>
@@ -82603,7 +82600,7 @@
         <v>759</v>
       </c>
       <c r="C2002" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2002" s="2" t="s">
         <v>25</v>
@@ -82644,7 +82641,7 @@
         <v>760</v>
       </c>
       <c r="C2003" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2003" s="2" t="s">
         <v>28</v>
@@ -82685,7 +82682,7 @@
         <v>761</v>
       </c>
       <c r="C2004" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2004" s="2" t="s">
         <v>44</v>
@@ -82726,7 +82723,7 @@
         <v>762</v>
       </c>
       <c r="C2005" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2005" s="2" t="s">
         <v>40</v>
@@ -82767,7 +82764,7 @@
         <v>763</v>
       </c>
       <c r="C2006" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2006" s="2" t="s">
         <v>27</v>
@@ -82808,7 +82805,7 @@
         <v>764</v>
       </c>
       <c r="C2007" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2007" s="2" t="s">
         <v>36</v>
@@ -82849,7 +82846,7 @@
         <v>765</v>
       </c>
       <c r="C2008" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2008" s="2" t="s">
         <v>26</v>
@@ -82890,7 +82887,7 @@
         <v>766</v>
       </c>
       <c r="C2009" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2009" s="2" t="s">
         <v>33</v>
@@ -82931,7 +82928,7 @@
         <v>767</v>
       </c>
       <c r="C2010" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2010" s="2" t="s">
         <v>39</v>
@@ -82972,7 +82969,7 @@
         <v>768</v>
       </c>
       <c r="C2011" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2011" s="2" t="s">
         <v>32</v>
@@ -83013,7 +83010,7 @@
         <v>769</v>
       </c>
       <c r="C2012" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2012" s="2" t="s">
         <v>35</v>
@@ -83054,7 +83051,7 @@
         <v>770</v>
       </c>
       <c r="C2013" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2013" s="2" t="s">
         <v>17</v>
@@ -83095,7 +83092,7 @@
         <v>771</v>
       </c>
       <c r="C2014" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2014" s="2" t="s">
         <v>16</v>
@@ -83136,7 +83133,7 @@
         <v>772</v>
       </c>
       <c r="C2015" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2015" s="2" t="s">
         <v>22</v>
@@ -83177,7 +83174,7 @@
         <v>773</v>
       </c>
       <c r="C2016" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2016" s="2" t="s">
         <v>30</v>
@@ -83218,7 +83215,7 @@
         <v>774</v>
       </c>
       <c r="C2017" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2017" s="2" t="s">
         <v>25</v>
@@ -83259,7 +83256,7 @@
         <v>775</v>
       </c>
       <c r="C2018" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2018" s="2" t="s">
         <v>14</v>
@@ -83300,7 +83297,7 @@
         <v>776</v>
       </c>
       <c r="C2019" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2019" s="2" t="s">
         <v>37</v>
@@ -83341,7 +83338,7 @@
         <v>777</v>
       </c>
       <c r="C2020" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2020" s="2" t="s">
         <v>28</v>
@@ -83382,7 +83379,7 @@
         <v>778</v>
       </c>
       <c r="C2021" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2021" s="2" t="s">
         <v>43</v>
@@ -83423,7 +83420,7 @@
         <v>779</v>
       </c>
       <c r="C2022" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2022" s="2" t="s">
         <v>20</v>
@@ -83464,7 +83461,7 @@
         <v>780</v>
       </c>
       <c r="C2023" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2023" s="2" t="s">
         <v>38</v>
@@ -83505,7 +83502,7 @@
         <v>781</v>
       </c>
       <c r="C2024" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2024" s="2" t="s">
         <v>18</v>
@@ -83546,7 +83543,7 @@
         <v>782</v>
       </c>
       <c r="C2025" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2025" s="2" t="s">
         <v>34</v>
@@ -83587,7 +83584,7 @@
         <v>783</v>
       </c>
       <c r="C2026" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2026" s="2" t="s">
         <v>40</v>
@@ -83628,7 +83625,7 @@
         <v>784</v>
       </c>
       <c r="C2027" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2027" s="2" t="s">
         <v>39</v>
@@ -83669,7 +83666,7 @@
         <v>785</v>
       </c>
       <c r="C2028" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2028" s="2" t="s">
         <v>17</v>
@@ -83710,7 +83707,7 @@
         <v>786</v>
       </c>
       <c r="C2029" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2029" s="2" t="s">
         <v>44</v>
@@ -83751,7 +83748,7 @@
         <v>701</v>
       </c>
       <c r="C2030" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2030" s="2" t="s">
         <v>36</v>
@@ -83792,7 +83789,7 @@
         <v>702</v>
       </c>
       <c r="C2031" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2031" s="2" t="s">
         <v>32</v>
@@ -83833,7 +83830,7 @@
         <v>703</v>
       </c>
       <c r="C2032" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2032" s="2" t="s">
         <v>35</v>
@@ -83874,7 +83871,7 @@
         <v>704</v>
       </c>
       <c r="C2033" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2033" s="2" t="s">
         <v>27</v>
@@ -83915,7 +83912,7 @@
         <v>705</v>
       </c>
       <c r="C2034" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2034" s="2" t="s">
         <v>37</v>
@@ -83956,7 +83953,7 @@
         <v>706</v>
       </c>
       <c r="C2035" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2035" s="2" t="s">
         <v>30</v>
@@ -83997,7 +83994,7 @@
         <v>707</v>
       </c>
       <c r="C2036" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2036" s="2" t="s">
         <v>22</v>
@@ -84038,7 +84035,7 @@
         <v>708</v>
       </c>
       <c r="C2037" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2037" s="2" t="s">
         <v>26</v>
@@ -84079,7 +84076,7 @@
         <v>709</v>
       </c>
       <c r="C2038" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2038" s="2" t="s">
         <v>33</v>
@@ -84120,7 +84117,7 @@
         <v>710</v>
       </c>
       <c r="C2039" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2039" s="2" t="s">
         <v>14</v>
@@ -84161,7 +84158,7 @@
         <v>711</v>
       </c>
       <c r="C2040" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2040" s="2" t="s">
         <v>25</v>
@@ -84202,7 +84199,7 @@
         <v>712</v>
       </c>
       <c r="C2041" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2041" s="2" t="s">
         <v>16</v>
@@ -84243,7 +84240,7 @@
         <v>713</v>
       </c>
       <c r="C2042" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2042" s="2" t="s">
         <v>18</v>
@@ -84284,7 +84281,7 @@
         <v>714</v>
       </c>
       <c r="C2043" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2043" s="2" t="s">
         <v>40</v>
@@ -84325,7 +84322,7 @@
         <v>715</v>
       </c>
       <c r="C2044" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2044" s="2" t="s">
         <v>36</v>
@@ -84366,7 +84363,7 @@
         <v>716</v>
       </c>
       <c r="C2045" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2045" s="2" t="s">
         <v>39</v>
@@ -84407,7 +84404,7 @@
         <v>717</v>
       </c>
       <c r="C2046" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2046" s="2" t="s">
         <v>17</v>
@@ -84448,7 +84445,7 @@
         <v>718</v>
       </c>
       <c r="C2047" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2047" s="2" t="s">
         <v>20</v>
@@ -84489,7 +84486,7 @@
         <v>719</v>
       </c>
       <c r="C2048" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2048" s="2" t="s">
         <v>38</v>
@@ -84530,7 +84527,7 @@
         <v>720</v>
       </c>
       <c r="C2049" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2049" s="2" t="s">
         <v>28</v>
@@ -84571,7 +84568,7 @@
         <v>721</v>
       </c>
       <c r="C2050" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2050" s="2" t="s">
         <v>43</v>
@@ -84612,7 +84609,7 @@
         <v>722</v>
       </c>
       <c r="C2051" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2051" s="2" t="s">
         <v>34</v>
@@ -84653,7 +84650,7 @@
         <v>723</v>
       </c>
       <c r="C2052" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2052" s="2" t="s">
         <v>33</v>
@@ -84694,7 +84691,7 @@
         <v>724</v>
       </c>
       <c r="C2053" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2053" s="2" t="s">
         <v>35</v>
@@ -84735,7 +84732,7 @@
         <v>725</v>
       </c>
       <c r="C2054" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2054" s="2" t="s">
         <v>27</v>
@@ -84776,7 +84773,7 @@
         <v>726</v>
       </c>
       <c r="C2055" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2055" s="2" t="s">
         <v>16</v>
@@ -84817,7 +84814,7 @@
         <v>727</v>
       </c>
       <c r="C2056" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2056" s="2" t="s">
         <v>32</v>
@@ -84858,7 +84855,7 @@
         <v>728</v>
       </c>
       <c r="C2057" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2057" s="2" t="s">
         <v>14</v>
@@ -84899,7 +84896,7 @@
         <v>729</v>
       </c>
       <c r="C2058" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2058" s="2" t="s">
         <v>22</v>
@@ -84940,7 +84937,7 @@
         <v>730</v>
       </c>
       <c r="C2059" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2059" s="2" t="s">
         <v>25</v>
@@ -84981,7 +84978,7 @@
         <v>731</v>
       </c>
       <c r="C2060" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2060" s="2" t="s">
         <v>26</v>
@@ -85022,7 +85019,7 @@
         <v>732</v>
       </c>
       <c r="C2061" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2061" s="2" t="s">
         <v>40</v>
@@ -85063,7 +85060,7 @@
         <v>733</v>
       </c>
       <c r="C2062" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2062" s="2" t="s">
         <v>44</v>
@@ -85104,7 +85101,7 @@
         <v>734</v>
       </c>
       <c r="C2063" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2063" s="2" t="s">
         <v>37</v>
@@ -85145,7 +85142,7 @@
         <v>735</v>
       </c>
       <c r="C2064" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2064" s="2" t="s">
         <v>30</v>
@@ -85186,7 +85183,7 @@
         <v>736</v>
       </c>
       <c r="C2065" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2065" s="2" t="s">
         <v>18</v>
@@ -85227,7 +85224,7 @@
         <v>737</v>
       </c>
       <c r="C2066" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2066" s="2" t="s">
         <v>35</v>
@@ -85268,7 +85265,7 @@
         <v>738</v>
       </c>
       <c r="C2067" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2067" s="2" t="s">
         <v>38</v>
@@ -85309,7 +85306,7 @@
         <v>739</v>
       </c>
       <c r="C2068" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2068" s="2" t="s">
         <v>34</v>
@@ -85350,7 +85347,7 @@
         <v>740</v>
       </c>
       <c r="C2069" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2069" s="2" t="s">
         <v>36</v>
@@ -85391,7 +85388,7 @@
         <v>741</v>
       </c>
       <c r="C2070" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2070" s="2" t="s">
         <v>16</v>
@@ -85432,7 +85429,7 @@
         <v>742</v>
       </c>
       <c r="C2071" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2071" s="2" t="s">
         <v>43</v>
@@ -85473,7 +85470,7 @@
         <v>743</v>
       </c>
       <c r="C2072" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2072" s="2" t="s">
         <v>20</v>
@@ -85514,7 +85511,7 @@
         <v>744</v>
       </c>
       <c r="C2073" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2073" s="2" t="s">
         <v>28</v>
@@ -85555,7 +85552,7 @@
         <v>745</v>
       </c>
       <c r="C2074" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2074" s="2" t="s">
         <v>39</v>
@@ -85596,7 +85593,7 @@
         <v>746</v>
       </c>
       <c r="C2075" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2075" s="2" t="s">
         <v>17</v>
@@ -85637,7 +85634,7 @@
         <v>747</v>
       </c>
       <c r="C2076" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2076" s="2" t="s">
         <v>30</v>
@@ -85678,7 +85675,7 @@
         <v>748</v>
       </c>
       <c r="C2077" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2077" s="2" t="s">
         <v>22</v>
@@ -85719,7 +85716,7 @@
         <v>749</v>
       </c>
       <c r="C2078" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2078" s="2" t="s">
         <v>44</v>
@@ -85760,7 +85757,7 @@
         <v>750</v>
       </c>
       <c r="C2079" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2079" s="2" t="s">
         <v>32</v>
@@ -85801,7 +85798,7 @@
         <v>751</v>
       </c>
       <c r="C2080" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2080" s="2" t="s">
         <v>38</v>
@@ -85842,7 +85839,7 @@
         <v>752</v>
       </c>
       <c r="C2081" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2081" s="2" t="s">
         <v>26</v>
@@ -85883,7 +85880,7 @@
         <v>753</v>
       </c>
       <c r="C2082" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2082" s="2" t="s">
         <v>40</v>
@@ -85924,7 +85921,7 @@
         <v>754</v>
       </c>
       <c r="C2083" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2083" s="2" t="s">
         <v>34</v>
@@ -85965,7 +85962,7 @@
         <v>755</v>
       </c>
       <c r="C2084" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2084" s="2" t="s">
         <v>25</v>
@@ -86006,7 +86003,7 @@
         <v>756</v>
       </c>
       <c r="C2085" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2085" s="2" t="s">
         <v>27</v>
@@ -86047,7 +86044,7 @@
         <v>757</v>
       </c>
       <c r="C2086" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2086" s="2" t="s">
         <v>14</v>
@@ -86088,7 +86085,7 @@
         <v>758</v>
       </c>
       <c r="C2087" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2087" s="2" t="s">
         <v>37</v>
@@ -86129,7 +86126,7 @@
         <v>759</v>
       </c>
       <c r="C2088" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2088" s="2" t="s">
         <v>43</v>
@@ -86170,7 +86167,7 @@
         <v>760</v>
       </c>
       <c r="C2089" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2089" s="2" t="s">
         <v>33</v>
@@ -86211,7 +86208,7 @@
         <v>761</v>
       </c>
       <c r="C2090" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2090" s="2" t="s">
         <v>20</v>
@@ -86252,7 +86249,7 @@
         <v>762</v>
       </c>
       <c r="C2091" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2091" s="2" t="s">
         <v>44</v>
@@ -86293,7 +86290,7 @@
         <v>763</v>
       </c>
       <c r="C2092" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2092" s="2" t="s">
         <v>16</v>
@@ -86334,7 +86331,7 @@
         <v>764</v>
       </c>
       <c r="C2093" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2093" s="2" t="s">
         <v>26</v>
@@ -86375,7 +86372,7 @@
         <v>765</v>
       </c>
       <c r="C2094" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2094" s="2" t="s">
         <v>28</v>
@@ -86416,7 +86413,7 @@
         <v>766</v>
       </c>
       <c r="C2095" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2095" s="2" t="s">
         <v>35</v>
@@ -86457,7 +86454,7 @@
         <v>767</v>
       </c>
       <c r="C2096" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2096" s="2" t="s">
         <v>18</v>
@@ -86498,7 +86495,7 @@
         <v>768</v>
       </c>
       <c r="C2097" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2097" s="2" t="s">
         <v>39</v>
@@ -86539,7 +86536,7 @@
         <v>701</v>
       </c>
       <c r="C2098" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2098" s="2" t="s">
         <v>14</v>
@@ -86580,7 +86577,7 @@
         <v>702</v>
       </c>
       <c r="C2099" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2099" s="2" t="s">
         <v>22</v>
@@ -86621,7 +86618,7 @@
         <v>703</v>
       </c>
       <c r="C2100" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2100" s="2" t="s">
         <v>43</v>
@@ -86662,7 +86659,7 @@
         <v>704</v>
       </c>
       <c r="C2101" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2101" s="2" t="s">
         <v>27</v>
@@ -86703,7 +86700,7 @@
         <v>705</v>
       </c>
       <c r="C2102" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2102" s="2" t="s">
         <v>32</v>
@@ -86744,7 +86741,7 @@
         <v>706</v>
       </c>
       <c r="C2103" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2103" s="2" t="s">
         <v>36</v>
@@ -86785,7 +86782,7 @@
         <v>707</v>
       </c>
       <c r="C2104" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2104" s="2" t="s">
         <v>37</v>
@@ -86826,7 +86823,7 @@
         <v>708</v>
       </c>
       <c r="C2105" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2105" s="2" t="s">
         <v>17</v>
@@ -86867,7 +86864,7 @@
         <v>709</v>
       </c>
       <c r="C2106" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2106" s="2" t="s">
         <v>33</v>
@@ -86908,7 +86905,7 @@
         <v>710</v>
       </c>
       <c r="C2107" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2107" s="2" t="s">
         <v>25</v>
@@ -86949,7 +86946,7 @@
         <v>711</v>
       </c>
       <c r="C2108" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2108" s="2" t="s">
         <v>34</v>
@@ -86990,7 +86987,7 @@
         <v>712</v>
       </c>
       <c r="C2109" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2109" s="2" t="s">
         <v>38</v>
@@ -87031,7 +87028,7 @@
         <v>713</v>
       </c>
       <c r="C2110" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2110" s="2" t="s">
         <v>40</v>
@@ -87072,7 +87069,7 @@
         <v>714</v>
       </c>
       <c r="C2111" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2111" s="2" t="s">
         <v>30</v>
@@ -87113,7 +87110,7 @@
         <v>715</v>
       </c>
       <c r="C2112" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2112" s="2" t="s">
         <v>26</v>
@@ -87154,7 +87151,7 @@
         <v>716</v>
       </c>
       <c r="C2113" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2113" s="2" t="s">
         <v>44</v>
@@ -87195,7 +87192,7 @@
         <v>717</v>
       </c>
       <c r="C2114" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2114" s="2" t="s">
         <v>39</v>
@@ -87236,7 +87233,7 @@
         <v>718</v>
       </c>
       <c r="C2115" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2115" s="2" t="s">
         <v>16</v>
@@ -87277,7 +87274,7 @@
         <v>719</v>
       </c>
       <c r="C2116" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2116" s="2" t="s">
         <v>35</v>
@@ -87318,7 +87315,7 @@
         <v>720</v>
       </c>
       <c r="C2117" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2117" s="2" t="s">
         <v>18</v>
@@ -87359,7 +87356,7 @@
         <v>721</v>
       </c>
       <c r="C2118" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2118" s="2" t="s">
         <v>28</v>
@@ -87400,7 +87397,7 @@
         <v>722</v>
       </c>
       <c r="C2119" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2119" s="2" t="s">
         <v>20</v>
@@ -87441,7 +87438,7 @@
         <v>723</v>
       </c>
       <c r="C2120" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2120" s="2" t="s">
         <v>27</v>
@@ -87482,7 +87479,7 @@
         <v>724</v>
       </c>
       <c r="C2121" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2121" s="2" t="s">
         <v>40</v>
@@ -87523,7 +87520,7 @@
         <v>751</v>
       </c>
       <c r="C2122" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2122" s="2" t="s">
         <v>36</v>
@@ -87564,7 +87561,7 @@
         <v>752</v>
       </c>
       <c r="C2123" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2123" s="2" t="s">
         <v>39</v>
@@ -87585,10 +87582,10 @@
         <v>135</v>
       </c>
       <c r="J2123" s="2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K2123" s="2">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="L2123" s="2">
         <v>-180</v>
@@ -87605,7 +87602,7 @@
         <v>753</v>
       </c>
       <c r="C2124" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2124" s="2" t="s">
         <v>30</v>
@@ -87646,7 +87643,7 @@
         <v>754</v>
       </c>
       <c r="C2125" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2125" s="2" t="s">
         <v>16</v>
@@ -87667,10 +87664,10 @@
         <v>134</v>
       </c>
       <c r="J2125" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="K2125" s="2">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="L2125" s="2">
         <v>-600</v>
@@ -87687,7 +87684,7 @@
         <v>755</v>
       </c>
       <c r="C2126" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2126" s="2" t="s">
         <v>26</v>
@@ -87728,7 +87725,7 @@
         <v>756</v>
       </c>
       <c r="C2127" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2127" s="2" t="s">
         <v>25</v>
@@ -87749,10 +87746,10 @@
         <v>109</v>
       </c>
       <c r="J2127" s="2">
-        <v>-5.5</v>
+        <v>5.5</v>
       </c>
       <c r="K2127" s="2">
-        <v>-6.5</v>
+        <v>6.5</v>
       </c>
       <c r="L2127" s="2">
         <v>-270</v>
@@ -87769,7 +87766,7 @@
         <v>757</v>
       </c>
       <c r="C2128" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2128" s="2" t="s">
         <v>34</v>
@@ -87810,7 +87807,7 @@
         <v>758</v>
       </c>
       <c r="C2129" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2129" s="2" t="s">
         <v>18</v>
@@ -87831,10 +87828,10 @@
         <v>118</v>
       </c>
       <c r="J2129" s="2">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="K2129" s="2">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="L2129" s="2">
         <v>-345</v>
@@ -87851,7 +87848,7 @@
         <v>761</v>
       </c>
       <c r="C2130" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2130" s="2" t="s">
         <v>22</v>
@@ -87892,7 +87889,7 @@
         <v>762</v>
       </c>
       <c r="C2131" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2131" s="2" t="s">
         <v>43</v>
@@ -87913,10 +87910,10 @@
         <v>110</v>
       </c>
       <c r="J2131" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="K2131" s="2">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="L2131" s="2">
         <v>-1600</v>
@@ -87933,7 +87930,7 @@
         <v>767</v>
       </c>
       <c r="C2132" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2132" s="2" t="s">
         <v>40</v>
@@ -87974,7 +87971,7 @@
         <v>768</v>
       </c>
       <c r="C2133" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2133" s="2" t="s">
         <v>17</v>
@@ -87995,10 +87992,10 @@
         <v>93</v>
       </c>
       <c r="J2133" s="2">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="K2133" s="2">
-        <v>-6.5</v>
+        <v>6.5</v>
       </c>
       <c r="L2133" s="2">
         <v>-300</v>
@@ -88015,7 +88012,7 @@
         <v>769</v>
       </c>
       <c r="C2134" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2134" s="2" t="s">
         <v>28</v>
@@ -88036,10 +88033,10 @@
         <v>113</v>
       </c>
       <c r="J2134" s="2">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="K2134" s="2">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="L2134" s="2">
         <v>-185</v>
@@ -88056,7 +88053,7 @@
         <v>770</v>
       </c>
       <c r="C2135" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2135" s="2" t="s">
         <v>20</v>
@@ -88097,7 +88094,7 @@
         <v>771</v>
       </c>
       <c r="C2136" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2136" s="2" t="s">
         <v>35</v>
@@ -88118,10 +88115,10 @@
         <v>108</v>
       </c>
       <c r="J2136" s="2">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="K2136" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L2136" s="2">
         <v>-110</v>
@@ -88138,7 +88135,7 @@
         <v>772</v>
       </c>
       <c r="C2137" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2137" s="2" t="s">
         <v>44</v>
@@ -88179,7 +88176,7 @@
         <v>701</v>
       </c>
       <c r="C2138" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2138" s="2" t="s">
         <v>30</v>
@@ -88220,7 +88217,7 @@
         <v>702</v>
       </c>
       <c r="C2139" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2139" s="2" t="s">
         <v>16</v>
@@ -88241,10 +88238,10 @@
         <v>104</v>
       </c>
       <c r="J2139" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="K2139" s="2">
-        <v>-11.5</v>
+        <v>11.5</v>
       </c>
       <c r="L2139" s="2">
         <v>-900</v>
@@ -88261,7 +88258,7 @@
         <v>703</v>
       </c>
       <c r="C2140" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2140" s="2" t="s">
         <v>36</v>
@@ -88302,7 +88299,7 @@
         <v>704</v>
       </c>
       <c r="C2141" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2141" s="2" t="s">
         <v>39</v>
@@ -88323,10 +88320,10 @@
         <v>105</v>
       </c>
       <c r="J2141" s="2">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="K2141" s="2">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="L2141" s="2">
         <v>-165</v>
@@ -88343,7 +88340,7 @@
         <v>705</v>
       </c>
       <c r="C2142" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2142" s="2" t="s">
         <v>26</v>
@@ -88384,7 +88381,7 @@
         <v>706</v>
       </c>
       <c r="C2143" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2143" s="2" t="s">
         <v>25</v>
@@ -88405,10 +88402,10 @@
         <v>128</v>
       </c>
       <c r="J2143" s="2">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="K2143" s="2">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="L2143" s="2">
         <v>-200</v>
@@ -88425,7 +88422,7 @@
         <v>707</v>
       </c>
       <c r="C2144" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2144" s="2" t="s">
         <v>34</v>
@@ -88466,7 +88463,7 @@
         <v>708</v>
       </c>
       <c r="C2145" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2145" s="2" t="s">
         <v>18</v>
@@ -88487,10 +88484,10 @@
         <v>114</v>
       </c>
       <c r="J2145" s="2">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="K2145" s="2">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="L2145" s="2">
         <v>-200</v>
@@ -88507,7 +88504,7 @@
         <v>711</v>
       </c>
       <c r="C2146" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2146" s="2" t="s">
         <v>28</v>
@@ -88528,10 +88525,10 @@
         <v>109</v>
       </c>
       <c r="J2146" s="2">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="K2146" s="2">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="L2146" s="2">
         <v>-175</v>
@@ -88548,7 +88545,7 @@
         <v>712</v>
       </c>
       <c r="C2147" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2147" s="2" t="s">
         <v>20</v>
@@ -88589,7 +88586,7 @@
         <v>713</v>
       </c>
       <c r="C2148" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2148" s="2" t="s">
         <v>35</v>
@@ -88630,7 +88627,7 @@
         <v>714</v>
       </c>
       <c r="C2149" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2149" s="2" t="s">
         <v>44</v>
@@ -88651,10 +88648,10 @@
         <v>111</v>
       </c>
       <c r="J2149" s="2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K2149" s="2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="L2149" s="2">
         <v>-135</v>
@@ -88671,7 +88668,7 @@
         <v>715</v>
       </c>
       <c r="C2150" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2150" s="2" t="s">
         <v>22</v>
@@ -88712,7 +88709,7 @@
         <v>716</v>
       </c>
       <c r="C2151" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2151" s="2" t="s">
         <v>43</v>
@@ -88733,10 +88730,10 @@
         <v>111</v>
       </c>
       <c r="J2151" s="2">
-        <v>-12</v>
+        <v>12</v>
       </c>
       <c r="K2151" s="2">
-        <v>-13.5</v>
+        <v>13.5</v>
       </c>
       <c r="L2151" s="2">
         <v>-1400</v>
@@ -88753,7 +88750,7 @@
         <v>717</v>
       </c>
       <c r="C2152" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2152" s="2" t="s">
         <v>40</v>
@@ -88794,7 +88791,7 @@
         <v>718</v>
       </c>
       <c r="C2153" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2153" s="2" t="s">
         <v>17</v>
@@ -88815,10 +88812,10 @@
         <v>111</v>
       </c>
       <c r="J2153" s="2">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="K2153" s="2">
-        <v>-6.5</v>
+        <v>6.5</v>
       </c>
       <c r="L2153" s="2">
         <v>-245</v>
@@ -88835,7 +88832,7 @@
         <v>721</v>
       </c>
       <c r="C2154" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2154" s="2" t="s">
         <v>16</v>
@@ -88856,10 +88853,10 @@
         <v>117</v>
       </c>
       <c r="J2154" s="2">
-        <v>-9.5</v>
+        <v>9.5</v>
       </c>
       <c r="K2154" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="L2154" s="2">
         <v>-600</v>
@@ -88876,7 +88873,7 @@
         <v>722</v>
       </c>
       <c r="C2155" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2155" s="2" t="s">
         <v>30</v>
@@ -88917,7 +88914,7 @@
         <v>723</v>
       </c>
       <c r="C2156" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2156" s="2" t="s">
         <v>39</v>
@@ -88938,7 +88935,7 @@
         <v>87</v>
       </c>
       <c r="J2156" s="2">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="K2156" s="2">
         <v>1</v>
@@ -88958,7 +88955,7 @@
         <v>724</v>
       </c>
       <c r="C2157" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2157" s="2" t="s">
         <v>36</v>
@@ -88999,7 +88996,7 @@
         <v>725</v>
       </c>
       <c r="C2158" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2158" s="2" t="s">
         <v>25</v>
@@ -89020,10 +89017,10 @@
         <v>102</v>
       </c>
       <c r="J2158" s="2">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="K2158" s="2">
-        <v>-5.5</v>
+        <v>5.5</v>
       </c>
       <c r="L2158" s="2">
         <v>-240</v>
@@ -89040,7 +89037,7 @@
         <v>726</v>
       </c>
       <c r="C2159" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2159" s="2" t="s">
         <v>26</v>
@@ -89081,7 +89078,7 @@
         <v>727</v>
       </c>
       <c r="C2160" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2160" s="2" t="s">
         <v>18</v>
@@ -89102,10 +89099,10 @@
         <v>130</v>
       </c>
       <c r="J2160" s="2">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="K2160" s="2">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="L2160" s="2">
         <v>-210</v>
@@ -89122,7 +89119,7 @@
         <v>728</v>
       </c>
       <c r="C2161" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2161" s="2" t="s">
         <v>34</v>
@@ -89163,7 +89160,7 @@
         <v>731</v>
       </c>
       <c r="C2162" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2162" s="2" t="s">
         <v>43</v>
@@ -89184,16 +89181,16 @@
         <v>121</v>
       </c>
       <c r="J2162" s="2">
-        <v>-12.5</v>
+        <v>12.5</v>
       </c>
       <c r="K2162" s="2">
-        <v>-12.5</v>
+        <v>12.5</v>
       </c>
       <c r="L2162" s="2">
         <v>-1100</v>
       </c>
       <c r="M2162" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2163" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -89204,7 +89201,7 @@
         <v>732</v>
       </c>
       <c r="C2163" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2163" s="2" t="s">
         <v>22</v>
@@ -89234,7 +89231,7 @@
         <v>700</v>
       </c>
       <c r="M2163" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2164" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
@@ -89245,7 +89242,7 @@
         <v>733</v>
       </c>
       <c r="C2164" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2164" s="2" t="s">
         <v>20</v>
@@ -89286,7 +89283,7 @@
         <v>734</v>
       </c>
       <c r="C2165" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2165" s="2" t="s">
         <v>28</v>
@@ -89307,10 +89304,10 @@
         <v>124</v>
       </c>
       <c r="J2165" s="2">
-        <v>-4.5</v>
+        <v>4.5</v>
       </c>
       <c r="K2165" s="2">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="L2165" s="2">
         <v>-210</v>
@@ -89327,7 +89324,7 @@
         <v>735</v>
       </c>
       <c r="C2166" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2166" s="2" t="s">
         <v>44</v>
@@ -89348,10 +89345,10 @@
         <v>107</v>
       </c>
       <c r="J2166" s="2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K2166" s="2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="L2166" s="2">
         <v>-130</v>
@@ -89368,7 +89365,7 @@
         <v>736</v>
       </c>
       <c r="C2167" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2167" s="2" t="s">
         <v>35</v>
@@ -89409,7 +89406,7 @@
         <v>737</v>
       </c>
       <c r="C2168" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2168" s="2" t="s">
         <v>17</v>
@@ -89430,10 +89427,10 @@
         <v>116</v>
       </c>
       <c r="J2168" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K2168" s="2">
-        <v>-7.5</v>
+        <v>7.5</v>
       </c>
       <c r="L2168" s="2">
         <v>-350</v>
@@ -89450,7 +89447,7 @@
         <v>738</v>
       </c>
       <c r="C2169" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2169" s="2" t="s">
         <v>40</v>
@@ -89491,7 +89488,7 @@
         <v>741</v>
       </c>
       <c r="C2170" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2170" s="2" t="s">
         <v>25</v>
@@ -89512,10 +89509,10 @@
         <v>110</v>
       </c>
       <c r="J2170" s="2">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="K2170" s="2">
-        <v>-7</v>
+        <v>7</v>
       </c>
       <c r="L2170" s="2">
         <v>-310</v>
@@ -89532,7 +89529,7 @@
         <v>742</v>
       </c>
       <c r="C2171" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2171" s="2" t="s">
         <v>26</v>
@@ -89573,7 +89570,7 @@
         <v>743</v>
       </c>
       <c r="C2172" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2172" s="2" t="s">
         <v>18</v>
@@ -89594,10 +89591,10 @@
         <v>133</v>
       </c>
       <c r="J2172" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K2172" s="2">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="L2172" s="2">
         <v>-340</v>
@@ -89614,7 +89611,7 @@
         <v>744</v>
       </c>
       <c r="C2173" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2173" s="2" t="s">
         <v>34</v>
@@ -89655,7 +89652,7 @@
         <v>745</v>
       </c>
       <c r="C2174" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2174" s="2" t="s">
         <v>16</v>
@@ -89676,10 +89673,10 @@
         <v>150</v>
       </c>
       <c r="J2174" s="2">
-        <v>-12.5</v>
+        <v>12.5</v>
       </c>
       <c r="K2174" s="2">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="L2174" s="2">
         <v>-1400</v>
@@ -89696,7 +89693,7 @@
         <v>746</v>
       </c>
       <c r="C2175" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2175" s="2" t="s">
         <v>30</v>
@@ -89737,7 +89734,7 @@
         <v>747</v>
       </c>
       <c r="C2176" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2176" s="2" t="s">
         <v>39</v>
@@ -89778,7 +89775,7 @@
         <v>748</v>
       </c>
       <c r="C2177" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2177" s="2" t="s">
         <v>36</v>
@@ -89799,16 +89796,4526 @@
         <v>129</v>
       </c>
       <c r="J2177" s="2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="K2177" s="2">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="L2177" s="2">
         <v>-160</v>
       </c>
       <c r="M2177" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2178" s="2">
+        <v>824</v>
+      </c>
+      <c r="B2178" s="2">
+        <v>701</v>
+      </c>
+      <c r="C2178" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2178" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2178" s="2">
+        <v>22</v>
+      </c>
+      <c r="F2178" s="2">
+        <v>36</v>
+      </c>
+      <c r="G2178" s="2">
+        <v>26</v>
+      </c>
+      <c r="H2178" s="2">
+        <v>37</v>
+      </c>
+      <c r="I2178" s="2">
+        <v>121</v>
+      </c>
+      <c r="J2178" s="2">
+        <v>14</v>
+      </c>
+      <c r="K2178" s="2">
+        <v>13</v>
+      </c>
+      <c r="L2178" s="2">
+        <v>-1100</v>
+      </c>
+      <c r="M2178" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2179" s="2">
+        <v>824</v>
+      </c>
+      <c r="B2179" s="2">
+        <v>702</v>
+      </c>
+      <c r="C2179" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2179" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2179" s="2">
+        <v>18</v>
+      </c>
+      <c r="F2179" s="2">
+        <v>34</v>
+      </c>
+      <c r="G2179" s="2">
+        <v>29</v>
+      </c>
+      <c r="H2179" s="2">
+        <v>25</v>
+      </c>
+      <c r="I2179" s="2">
+        <v>106</v>
+      </c>
+      <c r="J2179" s="2">
+        <v>225.5</v>
+      </c>
+      <c r="K2179" s="2">
+        <v>226.5</v>
+      </c>
+      <c r="L2179" s="2">
+        <v>700</v>
+      </c>
+      <c r="M2179" s="2">
+        <v>114.5</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2180" s="2">
+        <v>824</v>
+      </c>
+      <c r="B2180" s="2">
+        <v>703</v>
+      </c>
+      <c r="C2180" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2180" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2180" s="2">
+        <v>37</v>
+      </c>
+      <c r="F2180" s="2">
+        <v>23</v>
+      </c>
+      <c r="G2180" s="2">
+        <v>33</v>
+      </c>
+      <c r="H2180" s="2">
+        <v>21</v>
+      </c>
+      <c r="I2180" s="2">
+        <v>114</v>
+      </c>
+      <c r="J2180" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K2180" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2180" s="2">
+        <v>-150</v>
+      </c>
+      <c r="M2180" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2181" s="2">
+        <v>824</v>
+      </c>
+      <c r="B2181" s="2">
+        <v>704</v>
+      </c>
+      <c r="C2181" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2181" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2181" s="2">
+        <v>35</v>
+      </c>
+      <c r="F2181" s="2">
+        <v>25</v>
+      </c>
+      <c r="G2181" s="2">
+        <v>32</v>
+      </c>
+      <c r="H2181" s="2">
+        <v>25</v>
+      </c>
+      <c r="I2181" s="2">
+        <v>117</v>
+      </c>
+      <c r="J2181" s="2">
+        <v>221</v>
+      </c>
+      <c r="K2181" s="2">
+        <v>223.5</v>
+      </c>
+      <c r="L2181" s="2">
+        <v>130</v>
+      </c>
+      <c r="M2181" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2182" s="2">
+        <v>824</v>
+      </c>
+      <c r="B2182" s="2">
+        <v>705</v>
+      </c>
+      <c r="C2182" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2182" s="2">
+        <v>22</v>
+      </c>
+      <c r="F2182" s="2">
+        <v>20</v>
+      </c>
+      <c r="G2182" s="2">
+        <v>20</v>
+      </c>
+      <c r="H2182" s="2">
+        <v>25</v>
+      </c>
+      <c r="I2182" s="2">
+        <v>87</v>
+      </c>
+      <c r="J2182" s="2">
+        <v>216.5</v>
+      </c>
+      <c r="K2182" s="2">
+        <v>217.5</v>
+      </c>
+      <c r="L2182" s="2">
+        <v>235</v>
+      </c>
+      <c r="M2182" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2183" s="2">
+        <v>824</v>
+      </c>
+      <c r="B2183" s="2">
+        <v>706</v>
+      </c>
+      <c r="C2183" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2183" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2183" s="2">
+        <v>21</v>
+      </c>
+      <c r="F2183" s="2">
+        <v>27</v>
+      </c>
+      <c r="G2183" s="2">
+        <v>22</v>
+      </c>
+      <c r="H2183" s="2">
+        <v>29</v>
+      </c>
+      <c r="I2183" s="2">
+        <v>99</v>
+      </c>
+      <c r="J2183" s="2">
+        <v>7</v>
+      </c>
+      <c r="K2183" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="L2183" s="2">
+        <v>-275</v>
+      </c>
+      <c r="M2183" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2184" s="2">
+        <v>824</v>
+      </c>
+      <c r="B2184" s="2">
+        <v>707</v>
+      </c>
+      <c r="C2184" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2184" s="2">
+        <v>43</v>
+      </c>
+      <c r="F2184" s="2">
+        <v>37</v>
+      </c>
+      <c r="G2184" s="2">
+        <v>32</v>
+      </c>
+      <c r="H2184" s="2">
+        <v>23</v>
+      </c>
+      <c r="I2184" s="2">
+        <v>135</v>
+      </c>
+      <c r="J2184" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="K2184" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="L2184" s="2">
+        <v>-310</v>
+      </c>
+      <c r="M2184" s="2">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2185" s="2">
+        <v>824</v>
+      </c>
+      <c r="B2185" s="2">
+        <v>708</v>
+      </c>
+      <c r="C2185" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2185" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2185" s="2">
+        <v>25</v>
+      </c>
+      <c r="F2185" s="2">
+        <v>26</v>
+      </c>
+      <c r="G2185" s="2">
+        <v>36</v>
+      </c>
+      <c r="H2185" s="2">
+        <v>28</v>
+      </c>
+      <c r="I2185" s="2">
+        <v>115</v>
+      </c>
+      <c r="J2185" s="2">
+        <v>224.5</v>
+      </c>
+      <c r="K2185" s="2">
+        <v>226</v>
+      </c>
+      <c r="L2185" s="2">
+        <v>260</v>
+      </c>
+      <c r="M2185" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2186" s="2">
+        <v>825</v>
+      </c>
+      <c r="B2186" s="2">
+        <v>713</v>
+      </c>
+      <c r="C2186" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2186" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2186" s="2">
+        <v>32</v>
+      </c>
+      <c r="F2186" s="2">
+        <v>31</v>
+      </c>
+      <c r="G2186" s="2">
+        <v>23</v>
+      </c>
+      <c r="H2186" s="2">
+        <v>21</v>
+      </c>
+      <c r="I2186" s="2">
+        <v>107</v>
+      </c>
+      <c r="J2186" s="2">
+        <v>3</v>
+      </c>
+      <c r="K2186" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L2186" s="2">
+        <v>-140</v>
+      </c>
+      <c r="M2186" s="2">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2187" s="2">
+        <v>825</v>
+      </c>
+      <c r="B2187" s="2">
+        <v>714</v>
+      </c>
+      <c r="C2187" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2187" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2187" s="2">
+        <v>33</v>
+      </c>
+      <c r="F2187" s="2">
+        <v>21</v>
+      </c>
+      <c r="G2187" s="2">
+        <v>28</v>
+      </c>
+      <c r="H2187" s="2">
+        <v>35</v>
+      </c>
+      <c r="I2187" s="2">
+        <v>117</v>
+      </c>
+      <c r="J2187" s="2">
+        <v>220.5</v>
+      </c>
+      <c r="K2187" s="2">
+        <v>219.5</v>
+      </c>
+      <c r="L2187" s="2">
+        <v>120</v>
+      </c>
+      <c r="M2187" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2188" s="2">
+        <v>825</v>
+      </c>
+      <c r="B2188" s="2">
+        <v>715</v>
+      </c>
+      <c r="C2188" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2188" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2188" s="2">
+        <v>22</v>
+      </c>
+      <c r="F2188" s="2">
+        <v>30</v>
+      </c>
+      <c r="G2188" s="2">
+        <v>34</v>
+      </c>
+      <c r="H2188" s="2">
+        <v>25</v>
+      </c>
+      <c r="I2188" s="2">
+        <v>111</v>
+      </c>
+      <c r="J2188" s="2">
+        <v>237.5</v>
+      </c>
+      <c r="K2188" s="2">
+        <v>236.5</v>
+      </c>
+      <c r="L2188" s="2">
+        <v>320</v>
+      </c>
+      <c r="M2188" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2189" s="2">
+        <v>825</v>
+      </c>
+      <c r="B2189" s="2">
+        <v>716</v>
+      </c>
+      <c r="C2189" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2189" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2189" s="2">
+        <v>41</v>
+      </c>
+      <c r="F2189" s="2">
+        <v>35</v>
+      </c>
+      <c r="G2189" s="2">
+        <v>35</v>
+      </c>
+      <c r="H2189" s="2">
+        <v>43</v>
+      </c>
+      <c r="I2189" s="2">
+        <v>154</v>
+      </c>
+      <c r="J2189" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K2189" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="L2189" s="2">
+        <v>-380</v>
+      </c>
+      <c r="M2189" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2190" s="2">
+        <v>829</v>
+      </c>
+      <c r="B2190" s="2">
+        <v>701</v>
+      </c>
+      <c r="C2190" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2190" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2190" s="2">
+        <v>21</v>
+      </c>
+      <c r="F2190" s="2">
+        <v>29</v>
+      </c>
+      <c r="G2190" s="2">
+        <v>29</v>
+      </c>
+      <c r="H2190" s="2">
+        <v>25</v>
+      </c>
+      <c r="I2190" s="2">
+        <v>104</v>
+      </c>
+      <c r="J2190" s="2">
+        <v>226</v>
+      </c>
+      <c r="K2190" s="2">
+        <v>225</v>
+      </c>
+      <c r="L2190" s="2">
+        <v>900</v>
+      </c>
+      <c r="M2190" s="2">
+        <v>113.5</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2191" s="2">
+        <v>829</v>
+      </c>
+      <c r="B2191" s="2">
+        <v>702</v>
+      </c>
+      <c r="C2191" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2191" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2191" s="2">
+        <v>26</v>
+      </c>
+      <c r="F2191" s="2">
+        <v>41</v>
+      </c>
+      <c r="G2191" s="2">
+        <v>23</v>
+      </c>
+      <c r="H2191" s="2">
+        <v>28</v>
+      </c>
+      <c r="I2191" s="2">
+        <v>118</v>
+      </c>
+      <c r="J2191" s="2">
+        <v>13</v>
+      </c>
+      <c r="K2191" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="L2191" s="2">
+        <v>-1600</v>
+      </c>
+      <c r="M2191" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2192" s="2">
+        <v>829</v>
+      </c>
+      <c r="B2192" s="2">
+        <v>703</v>
+      </c>
+      <c r="C2192" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2192" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2192" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2192" s="2">
+        <v>31</v>
+      </c>
+      <c r="G2192" s="2">
+        <v>18</v>
+      </c>
+      <c r="H2192" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2192" s="2">
+        <v>80</v>
+      </c>
+      <c r="J2192" s="2">
+        <v>224.5</v>
+      </c>
+      <c r="K2192" s="2">
+        <v>228</v>
+      </c>
+      <c r="L2192" s="2">
+        <v>185</v>
+      </c>
+      <c r="M2192" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2193" s="2">
+        <v>829</v>
+      </c>
+      <c r="B2193" s="2">
+        <v>704</v>
+      </c>
+      <c r="C2193" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2193" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2193" s="2">
+        <v>24</v>
+      </c>
+      <c r="F2193" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2193" s="2">
+        <v>37</v>
+      </c>
+      <c r="H2193" s="2">
+        <v>29</v>
+      </c>
+      <c r="I2193" s="2">
+        <v>114</v>
+      </c>
+      <c r="J2193" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K2193" s="2">
+        <v>5</v>
+      </c>
+      <c r="L2193" s="2">
+        <v>-215</v>
+      </c>
+      <c r="M2193" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2194" s="2">
+        <v>829</v>
+      </c>
+      <c r="B2194" s="2">
+        <v>705</v>
+      </c>
+      <c r="C2194" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2194" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2194" s="2">
+        <v>31</v>
+      </c>
+      <c r="F2194" s="2">
+        <v>37</v>
+      </c>
+      <c r="G2194" s="2">
+        <v>24</v>
+      </c>
+      <c r="H2194" s="2">
+        <v>30</v>
+      </c>
+      <c r="I2194" s="2">
+        <v>122</v>
+      </c>
+      <c r="J2194" s="2">
+        <v>223</v>
+      </c>
+      <c r="K2194" s="2">
+        <v>223.5</v>
+      </c>
+      <c r="L2194" s="2">
+        <v>800</v>
+      </c>
+      <c r="M2194" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2195" s="2">
+        <v>829</v>
+      </c>
+      <c r="B2195" s="2">
+        <v>706</v>
+      </c>
+      <c r="C2195" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2195" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2195" s="2">
+        <v>35</v>
+      </c>
+      <c r="F2195" s="2">
+        <v>33</v>
+      </c>
+      <c r="G2195" s="2">
+        <v>32</v>
+      </c>
+      <c r="H2195" s="2">
+        <v>31</v>
+      </c>
+      <c r="I2195" s="2">
+        <v>131</v>
+      </c>
+      <c r="J2195" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="K2195" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="L2195" s="2">
+        <v>-1400</v>
+      </c>
+      <c r="M2195" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2196" s="2">
+        <v>830</v>
+      </c>
+      <c r="B2196" s="2">
+        <v>709</v>
+      </c>
+      <c r="C2196" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2196" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2196" s="2">
+        <v>39</v>
+      </c>
+      <c r="F2196" s="2">
+        <v>20</v>
+      </c>
+      <c r="G2196" s="2">
+        <v>29</v>
+      </c>
+      <c r="H2196" s="2">
+        <v>24</v>
+      </c>
+      <c r="I2196" s="2">
+        <v>112</v>
+      </c>
+      <c r="J2196" s="2">
+        <v>216</v>
+      </c>
+      <c r="K2196" s="2">
+        <v>217.5</v>
+      </c>
+      <c r="L2196" s="2">
+        <v>110</v>
+      </c>
+      <c r="M2196" s="2">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2197" s="2">
+        <v>830</v>
+      </c>
+      <c r="B2197" s="2">
+        <v>710</v>
+      </c>
+      <c r="C2197" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2197" s="2">
+        <v>23</v>
+      </c>
+      <c r="F2197" s="2">
+        <v>19</v>
+      </c>
+      <c r="G2197" s="2">
+        <v>31</v>
+      </c>
+      <c r="H2197" s="2">
+        <v>21</v>
+      </c>
+      <c r="I2197" s="2">
+        <v>94</v>
+      </c>
+      <c r="J2197" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2197" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2197" s="2">
+        <v>-130</v>
+      </c>
+      <c r="M2197" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2198" s="2">
+        <v>830</v>
+      </c>
+      <c r="B2198" s="2">
+        <v>711</v>
+      </c>
+      <c r="C2198" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2198" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2198" s="2">
+        <v>29</v>
+      </c>
+      <c r="F2198" s="2">
+        <v>28</v>
+      </c>
+      <c r="G2198" s="2">
+        <v>28</v>
+      </c>
+      <c r="H2198" s="2">
+        <v>26</v>
+      </c>
+      <c r="I2198" s="2">
+        <v>111</v>
+      </c>
+      <c r="J2198" s="2">
+        <v>9</v>
+      </c>
+      <c r="K2198" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="L2198" s="2">
+        <v>-500</v>
+      </c>
+      <c r="M2198" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2199" s="2">
+        <v>830</v>
+      </c>
+      <c r="B2199" s="2">
+        <v>712</v>
+      </c>
+      <c r="C2199" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2199" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2199" s="2">
+        <v>34</v>
+      </c>
+      <c r="F2199" s="2">
+        <v>17</v>
+      </c>
+      <c r="G2199" s="2">
+        <v>23</v>
+      </c>
+      <c r="H2199" s="2">
+        <v>23</v>
+      </c>
+      <c r="I2199" s="2">
+        <v>97</v>
+      </c>
+      <c r="J2199" s="2">
+        <v>237.5</v>
+      </c>
+      <c r="K2199" s="2">
+        <v>236.5</v>
+      </c>
+      <c r="L2199" s="2">
+        <v>400</v>
+      </c>
+      <c r="M2199" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2200" s="2">
+        <v>830</v>
+      </c>
+      <c r="B2200" s="2">
+        <v>713</v>
+      </c>
+      <c r="C2200" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2200" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2200" s="2">
+        <v>30</v>
+      </c>
+      <c r="F2200" s="2">
+        <v>31</v>
+      </c>
+      <c r="G2200" s="2">
+        <v>27</v>
+      </c>
+      <c r="H2200" s="2">
+        <v>31</v>
+      </c>
+      <c r="I2200" s="2">
+        <v>119</v>
+      </c>
+      <c r="J2200" s="2">
+        <v>220.5</v>
+      </c>
+      <c r="K2200" s="2">
+        <v>219.5</v>
+      </c>
+      <c r="L2200" s="2">
+        <v>120</v>
+      </c>
+      <c r="M2200" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2201" s="2">
+        <v>830</v>
+      </c>
+      <c r="B2201" s="2">
+        <v>714</v>
+      </c>
+      <c r="C2201" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2201" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2201" s="2">
+        <v>36</v>
+      </c>
+      <c r="F2201" s="2">
+        <v>20</v>
+      </c>
+      <c r="G2201" s="2">
+        <v>23</v>
+      </c>
+      <c r="H2201" s="2">
+        <v>28</v>
+      </c>
+      <c r="I2201" s="2">
+        <v>107</v>
+      </c>
+      <c r="J2201" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K2201" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="L2201" s="2">
+        <v>-140</v>
+      </c>
+      <c r="M2201" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2202" s="2">
+        <v>831</v>
+      </c>
+      <c r="B2202" s="2">
+        <v>717</v>
+      </c>
+      <c r="C2202" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2202" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2202" s="2">
+        <v>25</v>
+      </c>
+      <c r="F2202" s="2">
+        <v>26</v>
+      </c>
+      <c r="G2202" s="2">
+        <v>24</v>
+      </c>
+      <c r="H2202" s="2">
+        <v>25</v>
+      </c>
+      <c r="I2202" s="2">
+        <v>100</v>
+      </c>
+      <c r="J2202" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K2202" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L2202" s="2">
+        <v>-240</v>
+      </c>
+      <c r="M2202" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2203" s="2">
+        <v>831</v>
+      </c>
+      <c r="B2203" s="2">
+        <v>718</v>
+      </c>
+      <c r="C2203" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2203" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2203" s="2">
+        <v>24</v>
+      </c>
+      <c r="F2203" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2203" s="2">
+        <v>29</v>
+      </c>
+      <c r="H2203" s="2">
+        <v>27</v>
+      </c>
+      <c r="I2203" s="2">
+        <v>104</v>
+      </c>
+      <c r="J2203" s="2">
+        <v>225</v>
+      </c>
+      <c r="K2203" s="2">
+        <v>226</v>
+      </c>
+      <c r="L2203" s="2">
+        <v>200</v>
+      </c>
+      <c r="M2203" s="2">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2204" s="2">
+        <v>831</v>
+      </c>
+      <c r="B2204" s="2">
+        <v>719</v>
+      </c>
+      <c r="C2204" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2204" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2204" s="2">
+        <v>29</v>
+      </c>
+      <c r="F2204" s="2">
+        <v>31</v>
+      </c>
+      <c r="G2204" s="2">
+        <v>32</v>
+      </c>
+      <c r="H2204" s="2">
+        <v>23</v>
+      </c>
+      <c r="I2204" s="2">
+        <v>115</v>
+      </c>
+      <c r="J2204" s="2">
+        <v>223</v>
+      </c>
+      <c r="K2204" s="2">
+        <v>224</v>
+      </c>
+      <c r="L2204" s="2">
+        <v>200</v>
+      </c>
+      <c r="M2204" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2205" s="2">
+        <v>831</v>
+      </c>
+      <c r="B2205" s="2">
+        <v>720</v>
+      </c>
+      <c r="C2205" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2205" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2205" s="2">
+        <v>40</v>
+      </c>
+      <c r="F2205" s="2">
+        <v>23</v>
+      </c>
+      <c r="G2205" s="2">
+        <v>23</v>
+      </c>
+      <c r="H2205" s="2">
+        <v>18</v>
+      </c>
+      <c r="I2205" s="2">
+        <v>104</v>
+      </c>
+      <c r="J2205" s="2">
+        <v>6</v>
+      </c>
+      <c r="K2205" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L2205" s="2">
+        <v>-240</v>
+      </c>
+      <c r="M2205" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2206" s="2">
+        <v>901</v>
+      </c>
+      <c r="B2206" s="2">
+        <v>723</v>
+      </c>
+      <c r="C2206" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2206" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2206" s="2">
+        <v>28</v>
+      </c>
+      <c r="F2206" s="2">
+        <v>22</v>
+      </c>
+      <c r="G2206" s="2">
+        <v>20</v>
+      </c>
+      <c r="H2206" s="2">
+        <v>32</v>
+      </c>
+      <c r="I2206" s="2">
+        <v>102</v>
+      </c>
+      <c r="J2206" s="2">
+        <v>216</v>
+      </c>
+      <c r="K2206" s="2">
+        <v>218.5</v>
+      </c>
+      <c r="L2206" s="2">
+        <v>110</v>
+      </c>
+      <c r="M2206" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2207" s="2">
+        <v>901</v>
+      </c>
+      <c r="B2207" s="2">
+        <v>724</v>
+      </c>
+      <c r="C2207" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2207" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2207" s="2">
+        <v>28</v>
+      </c>
+      <c r="F2207" s="2">
+        <v>20</v>
+      </c>
+      <c r="G2207" s="2">
+        <v>30</v>
+      </c>
+      <c r="H2207" s="2">
+        <v>21</v>
+      </c>
+      <c r="I2207" s="2">
+        <v>99</v>
+      </c>
+      <c r="J2207" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2207" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2207" s="2">
+        <v>-130</v>
+      </c>
+      <c r="M2207" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2208" s="2">
+        <v>901</v>
+      </c>
+      <c r="B2208" s="2">
+        <v>725</v>
+      </c>
+      <c r="C2208" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2208" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2208" s="2">
+        <v>21</v>
+      </c>
+      <c r="F2208" s="2">
+        <v>15</v>
+      </c>
+      <c r="G2208" s="2">
+        <v>24</v>
+      </c>
+      <c r="H2208" s="2">
+        <v>18</v>
+      </c>
+      <c r="I2208" s="2">
+        <v>78</v>
+      </c>
+      <c r="J2208" s="2">
+        <v>220.5</v>
+      </c>
+      <c r="K2208" s="2">
+        <v>217.5</v>
+      </c>
+      <c r="L2208" s="2">
+        <v>110</v>
+      </c>
+      <c r="M2208" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2209" s="2">
+        <v>901</v>
+      </c>
+      <c r="B2209" s="2">
+        <v>726</v>
+      </c>
+      <c r="C2209" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2209" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2209" s="2">
+        <v>26</v>
+      </c>
+      <c r="F2209" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2209" s="2">
+        <v>15</v>
+      </c>
+      <c r="H2209" s="2">
+        <v>15</v>
+      </c>
+      <c r="I2209" s="2">
+        <v>80</v>
+      </c>
+      <c r="J2209" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K2209" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2209" s="2">
+        <v>-130</v>
+      </c>
+      <c r="M2209" s="2">
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2210" s="2">
+        <v>902</v>
+      </c>
+      <c r="B2210" s="2">
+        <v>729</v>
+      </c>
+      <c r="C2210" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2210" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2210" s="2">
+        <v>38</v>
+      </c>
+      <c r="F2210" s="2">
+        <v>28</v>
+      </c>
+      <c r="G2210" s="2">
+        <v>24</v>
+      </c>
+      <c r="H2210" s="2">
+        <v>26</v>
+      </c>
+      <c r="I2210" s="2">
+        <v>116</v>
+      </c>
+      <c r="J2210" s="2">
+        <v>221</v>
+      </c>
+      <c r="K2210" s="2">
+        <v>223</v>
+      </c>
+      <c r="L2210" s="2">
+        <v>200</v>
+      </c>
+      <c r="M2210" s="2">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2211" s="2">
+        <v>902</v>
+      </c>
+      <c r="B2211" s="2">
+        <v>730</v>
+      </c>
+      <c r="C2211" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2211" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2211" s="2">
+        <v>29</v>
+      </c>
+      <c r="F2211" s="2">
+        <v>31</v>
+      </c>
+      <c r="G2211" s="2">
+        <v>26</v>
+      </c>
+      <c r="H2211" s="2">
+        <v>28</v>
+      </c>
+      <c r="I2211" s="2">
+        <v>114</v>
+      </c>
+      <c r="J2211" s="2">
+        <v>4</v>
+      </c>
+      <c r="K2211" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L2211" s="2">
+        <v>-240</v>
+      </c>
+      <c r="M2211" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2212" s="2">
+        <v>902</v>
+      </c>
+      <c r="B2212" s="2">
+        <v>731</v>
+      </c>
+      <c r="C2212" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2212" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2212" s="2">
+        <v>30</v>
+      </c>
+      <c r="F2212" s="2">
+        <v>29</v>
+      </c>
+      <c r="G2212" s="2">
+        <v>21</v>
+      </c>
+      <c r="H2212" s="2">
+        <v>22</v>
+      </c>
+      <c r="I2212" s="2">
+        <v>102</v>
+      </c>
+      <c r="J2212" s="2">
+        <v>223</v>
+      </c>
+      <c r="K2212" s="2">
+        <v>216.5</v>
+      </c>
+      <c r="L2212" s="2">
+        <v>200</v>
+      </c>
+      <c r="M2212" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2213" s="2">
+        <v>902</v>
+      </c>
+      <c r="B2213" s="2">
+        <v>732</v>
+      </c>
+      <c r="C2213" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2213" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2213" s="2">
+        <v>29</v>
+      </c>
+      <c r="F2213" s="2">
+        <v>32</v>
+      </c>
+      <c r="G2213" s="2">
+        <v>24</v>
+      </c>
+      <c r="H2213" s="2">
+        <v>19</v>
+      </c>
+      <c r="I2213" s="2">
+        <v>104</v>
+      </c>
+      <c r="J2213" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2213" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L2213" s="2">
+        <v>-240</v>
+      </c>
+      <c r="M2213" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2214" s="2">
+        <v>903</v>
+      </c>
+      <c r="B2214" s="2">
+        <v>733</v>
+      </c>
+      <c r="C2214" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2214" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2214" s="2">
+        <v>28</v>
+      </c>
+      <c r="F2214" s="2">
+        <v>19</v>
+      </c>
+      <c r="G2214" s="2">
+        <v>29</v>
+      </c>
+      <c r="H2214" s="2">
+        <v>28</v>
+      </c>
+      <c r="I2214" s="2">
+        <v>104</v>
+      </c>
+      <c r="J2214" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2214" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2214" s="2">
+        <v>-130</v>
+      </c>
+      <c r="M2214" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2215" s="2">
+        <v>903</v>
+      </c>
+      <c r="B2215" s="2">
+        <v>734</v>
+      </c>
+      <c r="C2215" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2215" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2215" s="2">
+        <v>33</v>
+      </c>
+      <c r="F2215" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2215" s="2">
+        <v>23</v>
+      </c>
+      <c r="H2215" s="2">
+        <v>23</v>
+      </c>
+      <c r="I2215" s="2">
+        <v>103</v>
+      </c>
+      <c r="J2215" s="2">
+        <v>214</v>
+      </c>
+      <c r="K2215" s="2">
+        <v>217</v>
+      </c>
+      <c r="L2215" s="2">
+        <v>110</v>
+      </c>
+      <c r="M2215" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2216" s="2">
+        <v>903</v>
+      </c>
+      <c r="B2216" s="2">
+        <v>735</v>
+      </c>
+      <c r="C2216" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2216" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2216" s="2">
+        <v>31</v>
+      </c>
+      <c r="F2216" s="2">
+        <v>20</v>
+      </c>
+      <c r="G2216" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2216" s="2">
+        <v>30</v>
+      </c>
+      <c r="I2216" s="2">
+        <v>97</v>
+      </c>
+      <c r="J2216" s="2">
+        <v>223</v>
+      </c>
+      <c r="K2216" s="2">
+        <v>223.5</v>
+      </c>
+      <c r="L2216" s="2">
+        <v>355</v>
+      </c>
+      <c r="M2216" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2217" s="2">
+        <v>903</v>
+      </c>
+      <c r="B2217" s="2">
+        <v>736</v>
+      </c>
+      <c r="C2217" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2217" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2217" s="2">
+        <v>31</v>
+      </c>
+      <c r="F2217" s="2">
+        <v>38</v>
+      </c>
+      <c r="G2217" s="2">
+        <v>22</v>
+      </c>
+      <c r="H2217" s="2">
+        <v>29</v>
+      </c>
+      <c r="I2217" s="2">
+        <v>120</v>
+      </c>
+      <c r="J2217" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K2217" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="L2217" s="2">
+        <v>-425</v>
+      </c>
+      <c r="M2217" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2218" s="2">
+        <v>904</v>
+      </c>
+      <c r="B2218" s="2">
+        <v>737</v>
+      </c>
+      <c r="C2218" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2218" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2218" s="2">
+        <v>30</v>
+      </c>
+      <c r="F2218" s="2">
+        <v>27</v>
+      </c>
+      <c r="G2218" s="2">
+        <v>30</v>
+      </c>
+      <c r="H2218" s="2">
+        <v>13</v>
+      </c>
+      <c r="I2218" s="2">
+        <v>100</v>
+      </c>
+      <c r="J2218" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K2218" s="2">
+        <v>5</v>
+      </c>
+      <c r="L2218" s="2">
+        <v>-210</v>
+      </c>
+      <c r="M2218" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2219" s="2">
+        <v>904</v>
+      </c>
+      <c r="B2219" s="2">
+        <v>738</v>
+      </c>
+      <c r="C2219" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2219" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2219" s="2">
+        <v>29</v>
+      </c>
+      <c r="F2219" s="2">
+        <v>21</v>
+      </c>
+      <c r="G2219" s="2">
+        <v>25</v>
+      </c>
+      <c r="H2219" s="2">
+        <v>40</v>
+      </c>
+      <c r="I2219" s="2">
+        <v>115</v>
+      </c>
+      <c r="J2219" s="2">
+        <v>222.5</v>
+      </c>
+      <c r="K2219" s="2">
+        <v>222</v>
+      </c>
+      <c r="L2219" s="2">
+        <v>180</v>
+      </c>
+      <c r="M2219" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2220" s="2">
+        <v>904</v>
+      </c>
+      <c r="B2220" s="2">
+        <v>739</v>
+      </c>
+      <c r="C2220" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2220" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2220" s="2">
+        <v>29</v>
+      </c>
+      <c r="F2220" s="2">
+        <v>34</v>
+      </c>
+      <c r="G2220" s="2">
+        <v>22</v>
+      </c>
+      <c r="H2220" s="2">
+        <v>27</v>
+      </c>
+      <c r="I2220" s="2">
+        <v>112</v>
+      </c>
+      <c r="J2220" s="2">
+        <v>226</v>
+      </c>
+      <c r="K2220" s="2">
+        <v>226.5</v>
+      </c>
+      <c r="L2220" s="2">
+        <v>245</v>
+      </c>
+      <c r="M2220" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2221" s="2">
+        <v>904</v>
+      </c>
+      <c r="B2221" s="2">
+        <v>740</v>
+      </c>
+      <c r="C2221" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2221" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2221" s="2">
+        <v>28</v>
+      </c>
+      <c r="F2221" s="2">
+        <v>27</v>
+      </c>
+      <c r="G2221" s="2">
+        <v>24</v>
+      </c>
+      <c r="H2221" s="2">
+        <v>18</v>
+      </c>
+      <c r="I2221" s="2">
+        <v>97</v>
+      </c>
+      <c r="J2221" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K2221" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="L2221" s="2">
+        <v>-290</v>
+      </c>
+      <c r="M2221" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2222" s="2">
+        <v>905</v>
+      </c>
+      <c r="B2222" s="2">
+        <v>741</v>
+      </c>
+      <c r="C2222" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2222" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2222" s="2">
+        <v>31</v>
+      </c>
+      <c r="F2222" s="2">
+        <v>18</v>
+      </c>
+      <c r="G2222" s="2">
+        <v>32</v>
+      </c>
+      <c r="H2222" s="2">
+        <v>19</v>
+      </c>
+      <c r="I2222" s="2">
+        <v>100</v>
+      </c>
+      <c r="J2222" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2222" s="2">
+        <v>215.5</v>
+      </c>
+      <c r="L2222" s="2">
+        <v>110</v>
+      </c>
+      <c r="M2222" s="2">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2223" s="2">
+        <v>905</v>
+      </c>
+      <c r="B2223" s="2">
+        <v>742</v>
+      </c>
+      <c r="C2223" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2223" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2223" s="2">
+        <v>27</v>
+      </c>
+      <c r="F2223" s="2">
+        <v>22</v>
+      </c>
+      <c r="G2223" s="2">
+        <v>24</v>
+      </c>
+      <c r="H2223" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2223" s="2">
+        <v>93</v>
+      </c>
+      <c r="J2223" s="2">
+        <v>212</v>
+      </c>
+      <c r="K2223" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2223" s="2">
+        <v>-130</v>
+      </c>
+      <c r="M2223" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2224" s="2">
+        <v>905</v>
+      </c>
+      <c r="B2224" s="2">
+        <v>743</v>
+      </c>
+      <c r="C2224" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2224" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2224" s="2">
+        <v>44</v>
+      </c>
+      <c r="F2224" s="2">
+        <v>28</v>
+      </c>
+      <c r="G2224" s="2">
+        <v>17</v>
+      </c>
+      <c r="H2224" s="2">
+        <v>21</v>
+      </c>
+      <c r="I2224" s="2">
+        <v>110</v>
+      </c>
+      <c r="J2224" s="2">
+        <v>221.5</v>
+      </c>
+      <c r="K2224" s="2">
+        <v>224</v>
+      </c>
+      <c r="L2224" s="2">
+        <v>350</v>
+      </c>
+      <c r="M2224" s="2">
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2225" s="2">
+        <v>905</v>
+      </c>
+      <c r="B2225" s="2">
+        <v>744</v>
+      </c>
+      <c r="C2225" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2225" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2225" s="2">
+        <v>25</v>
+      </c>
+      <c r="F2225" s="2">
+        <v>31</v>
+      </c>
+      <c r="G2225" s="2">
+        <v>21</v>
+      </c>
+      <c r="H2225" s="2">
+        <v>24</v>
+      </c>
+      <c r="I2225" s="2">
+        <v>101</v>
+      </c>
+      <c r="J2225" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="K2225" s="2">
+        <v>9</v>
+      </c>
+      <c r="L2225" s="2">
+        <v>-420</v>
+      </c>
+      <c r="M2225" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2226" s="2">
+        <v>906</v>
+      </c>
+      <c r="B2226" s="2">
+        <v>745</v>
+      </c>
+      <c r="C2226" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2226" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2226" s="2">
+        <v>22</v>
+      </c>
+      <c r="F2226" s="2">
+        <v>28</v>
+      </c>
+      <c r="G2226" s="2">
+        <v>36</v>
+      </c>
+      <c r="H2226" s="2">
+        <v>21</v>
+      </c>
+      <c r="I2226" s="2">
+        <v>118</v>
+      </c>
+      <c r="J2226" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K2226" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="L2226" s="2">
+        <v>-125</v>
+      </c>
+      <c r="M2226" s="2">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2227" s="2">
+        <v>906</v>
+      </c>
+      <c r="B2227" s="2">
+        <v>746</v>
+      </c>
+      <c r="C2227" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2227" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2227" s="2">
+        <v>31</v>
+      </c>
+      <c r="F2227" s="2">
+        <v>17</v>
+      </c>
+      <c r="G2227" s="2">
+        <v>40</v>
+      </c>
+      <c r="H2227" s="2">
+        <v>19</v>
+      </c>
+      <c r="I2227" s="2">
+        <v>115</v>
+      </c>
+      <c r="J2227" s="2">
+        <v>220</v>
+      </c>
+      <c r="K2227" s="2">
+        <v>220</v>
+      </c>
+      <c r="L2227" s="2">
+        <v>105</v>
+      </c>
+      <c r="M2227" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2228" s="2">
+        <v>906</v>
+      </c>
+      <c r="B2228" s="2">
+        <v>747</v>
+      </c>
+      <c r="C2228" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2228" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2228" s="2">
+        <v>20</v>
+      </c>
+      <c r="F2228" s="2">
+        <v>31</v>
+      </c>
+      <c r="G2228" s="2">
+        <v>41</v>
+      </c>
+      <c r="H2228" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2228" s="2">
+        <v>109</v>
+      </c>
+      <c r="J2228" s="2">
+        <v>224</v>
+      </c>
+      <c r="K2228" s="2">
+        <v>223</v>
+      </c>
+      <c r="L2228" s="2">
+        <v>210</v>
+      </c>
+      <c r="M2228" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2229" s="2">
+        <v>906</v>
+      </c>
+      <c r="B2229" s="2">
+        <v>748</v>
+      </c>
+      <c r="C2229" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2229" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2229" s="2">
+        <v>36</v>
+      </c>
+      <c r="F2229" s="2">
+        <v>31</v>
+      </c>
+      <c r="G2229" s="2">
+        <v>23</v>
+      </c>
+      <c r="H2229" s="2">
+        <v>27</v>
+      </c>
+      <c r="I2229" s="2">
+        <v>117</v>
+      </c>
+      <c r="J2229" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K2229" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L2229" s="2">
+        <v>-250</v>
+      </c>
+      <c r="M2229" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2230" s="2">
+        <v>907</v>
+      </c>
+      <c r="B2230" s="2">
+        <v>701</v>
+      </c>
+      <c r="C2230" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2230" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2230" s="2">
+        <v>25</v>
+      </c>
+      <c r="F2230" s="2">
+        <v>37</v>
+      </c>
+      <c r="G2230" s="2">
+        <v>25</v>
+      </c>
+      <c r="H2230" s="2">
+        <v>24</v>
+      </c>
+      <c r="I2230" s="2">
+        <v>111</v>
+      </c>
+      <c r="J2230" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2230" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="L2230" s="2">
+        <v>-130</v>
+      </c>
+      <c r="M2230" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2231" s="2">
+        <v>907</v>
+      </c>
+      <c r="B2231" s="2">
+        <v>702</v>
+      </c>
+      <c r="C2231" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2231" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2231" s="2">
+        <v>11</v>
+      </c>
+      <c r="F2231" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2231" s="2">
+        <v>28</v>
+      </c>
+      <c r="H2231" s="2">
+        <v>26</v>
+      </c>
+      <c r="I2231" s="2">
+        <v>89</v>
+      </c>
+      <c r="J2231" s="2">
+        <v>212.5</v>
+      </c>
+      <c r="K2231" s="2">
+        <v>212.5</v>
+      </c>
+      <c r="L2231" s="2">
+        <v>110</v>
+      </c>
+      <c r="M2231" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2232" s="2">
+        <v>907</v>
+      </c>
+      <c r="B2232" s="2">
+        <v>703</v>
+      </c>
+      <c r="C2232" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2232" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2232" s="2">
+        <v>33</v>
+      </c>
+      <c r="F2232" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2232" s="2">
+        <v>27</v>
+      </c>
+      <c r="H2232" s="2">
+        <v>29</v>
+      </c>
+      <c r="I2232" s="2">
+        <v>113</v>
+      </c>
+      <c r="J2232" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="K2232" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="L2232" s="2">
+        <v>-440</v>
+      </c>
+      <c r="M2232" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2233" s="2">
+        <v>907</v>
+      </c>
+      <c r="B2233" s="2">
+        <v>704</v>
+      </c>
+      <c r="C2233" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2233" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2233" s="2">
+        <v>32</v>
+      </c>
+      <c r="F2233" s="2">
+        <v>27</v>
+      </c>
+      <c r="G2233" s="2">
+        <v>29</v>
+      </c>
+      <c r="H2233" s="2">
+        <v>19</v>
+      </c>
+      <c r="I2233" s="2">
+        <v>107</v>
+      </c>
+      <c r="J2233" s="2">
+        <v>220.5</v>
+      </c>
+      <c r="K2233" s="2">
+        <v>220.5</v>
+      </c>
+      <c r="L2233" s="2">
+        <v>370</v>
+      </c>
+      <c r="M2233" s="2">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2234" s="2">
+        <v>908</v>
+      </c>
+      <c r="B2234" s="2">
+        <v>705</v>
+      </c>
+      <c r="C2234" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2234" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2234" s="2">
+        <v>19</v>
+      </c>
+      <c r="F2234" s="2">
+        <v>33</v>
+      </c>
+      <c r="G2234" s="2">
+        <v>21</v>
+      </c>
+      <c r="H2234" s="2">
+        <v>30</v>
+      </c>
+      <c r="I2234" s="2">
+        <v>103</v>
+      </c>
+      <c r="J2234" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K2234" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L2234" s="2">
+        <v>-230</v>
+      </c>
+      <c r="M2234" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2235" s="2">
+        <v>908</v>
+      </c>
+      <c r="B2235" s="2">
+        <v>706</v>
+      </c>
+      <c r="C2235" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2235" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2235" s="2">
+        <v>28</v>
+      </c>
+      <c r="F2235" s="2">
+        <v>18</v>
+      </c>
+      <c r="G2235" s="2">
+        <v>19</v>
+      </c>
+      <c r="H2235" s="2">
+        <v>29</v>
+      </c>
+      <c r="I2235" s="2">
+        <v>94</v>
+      </c>
+      <c r="J2235" s="2">
+        <v>218</v>
+      </c>
+      <c r="K2235" s="2">
+        <v>220</v>
+      </c>
+      <c r="L2235" s="2">
+        <v>195</v>
+      </c>
+      <c r="M2235" s="2">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2236" s="2">
+        <v>908</v>
+      </c>
+      <c r="B2236" s="2">
+        <v>707</v>
+      </c>
+      <c r="C2236" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2236" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2236" s="2">
+        <v>32</v>
+      </c>
+      <c r="F2236" s="2">
+        <v>29</v>
+      </c>
+      <c r="G2236" s="2">
+        <v>21</v>
+      </c>
+      <c r="H2236" s="2">
+        <v>30</v>
+      </c>
+      <c r="I2236" s="2">
+        <v>112</v>
+      </c>
+      <c r="J2236" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K2236" s="2">
+        <v>4</v>
+      </c>
+      <c r="L2236" s="2">
+        <v>-175</v>
+      </c>
+      <c r="M2236" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2237" s="2">
+        <v>908</v>
+      </c>
+      <c r="B2237" s="2">
+        <v>708</v>
+      </c>
+      <c r="C2237" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2237" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2237" s="2">
+        <v>33</v>
+      </c>
+      <c r="F2237" s="2">
+        <v>31</v>
+      </c>
+      <c r="G2237" s="2">
+        <v>18</v>
+      </c>
+      <c r="H2237" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2237" s="2">
+        <v>102</v>
+      </c>
+      <c r="J2237" s="2">
+        <v>224</v>
+      </c>
+      <c r="K2237" s="2">
+        <v>222</v>
+      </c>
+      <c r="L2237" s="2">
+        <v>155</v>
+      </c>
+      <c r="M2237" s="2">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2238" s="2">
+        <v>909</v>
+      </c>
+      <c r="B2238" s="2">
+        <v>709</v>
+      </c>
+      <c r="C2238" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2238" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2238" s="2">
+        <v>21</v>
+      </c>
+      <c r="F2238" s="2">
+        <v>27</v>
+      </c>
+      <c r="G2238" s="2">
+        <v>33</v>
+      </c>
+      <c r="H2238" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2238" s="2">
+        <v>125</v>
+      </c>
+      <c r="J2238" s="2">
+        <v>209.5</v>
+      </c>
+      <c r="K2238" s="2">
+        <v>209.5</v>
+      </c>
+      <c r="L2238" s="2">
+        <v>130</v>
+      </c>
+      <c r="M2238" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2239" s="2">
+        <v>909</v>
+      </c>
+      <c r="B2239" s="2">
+        <v>710</v>
+      </c>
+      <c r="C2239" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2239" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2239" s="2">
+        <v>25</v>
+      </c>
+      <c r="F2239" s="2">
+        <v>27</v>
+      </c>
+      <c r="G2239" s="2">
+        <v>25</v>
+      </c>
+      <c r="H2239" s="2">
+        <v>21</v>
+      </c>
+      <c r="I2239" s="2">
+        <v>122</v>
+      </c>
+      <c r="J2239" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K2239" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2239" s="2">
+        <v>-150</v>
+      </c>
+      <c r="M2239" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2240" s="2">
+        <v>909</v>
+      </c>
+      <c r="B2240" s="2">
+        <v>711</v>
+      </c>
+      <c r="C2240" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2240" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2240" s="2">
+        <v>26</v>
+      </c>
+      <c r="F2240" s="2">
+        <v>22</v>
+      </c>
+      <c r="G2240" s="2">
+        <v>25</v>
+      </c>
+      <c r="H2240" s="2">
+        <v>23</v>
+      </c>
+      <c r="I2240" s="2">
+        <v>96</v>
+      </c>
+      <c r="J2240" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="K2240" s="2">
+        <v>8</v>
+      </c>
+      <c r="L2240" s="2">
+        <v>-340</v>
+      </c>
+      <c r="M2240" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2241" s="2">
+        <v>909</v>
+      </c>
+      <c r="B2241" s="2">
+        <v>712</v>
+      </c>
+      <c r="C2241" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2241" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2241" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2241" s="2">
+        <v>28</v>
+      </c>
+      <c r="G2241" s="2">
+        <v>23</v>
+      </c>
+      <c r="H2241" s="2">
+        <v>22</v>
+      </c>
+      <c r="I2241" s="2">
+        <v>85</v>
+      </c>
+      <c r="J2241" s="2">
+        <v>220.5</v>
+      </c>
+      <c r="K2241" s="2">
+        <v>221.5</v>
+      </c>
+      <c r="L2241" s="2">
+        <v>280</v>
+      </c>
+      <c r="M2241" s="2">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2242" s="2">
+        <v>910</v>
+      </c>
+      <c r="B2242" s="2">
+        <v>715</v>
+      </c>
+      <c r="C2242" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2242" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2242" s="2">
+        <v>26</v>
+      </c>
+      <c r="F2242" s="2">
+        <v>31</v>
+      </c>
+      <c r="G2242" s="2">
+        <v>29</v>
+      </c>
+      <c r="H2242" s="2">
+        <v>24</v>
+      </c>
+      <c r="I2242" s="2">
+        <v>110</v>
+      </c>
+      <c r="J2242" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K2242" s="2">
+        <v>5</v>
+      </c>
+      <c r="L2242" s="2">
+        <v>-215</v>
+      </c>
+      <c r="M2242" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2243" s="2">
+        <v>910</v>
+      </c>
+      <c r="B2243" s="2">
+        <v>716</v>
+      </c>
+      <c r="C2243" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2243" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2243" s="2">
+        <v>22</v>
+      </c>
+      <c r="F2243" s="2">
+        <v>19</v>
+      </c>
+      <c r="G2243" s="2">
+        <v>29</v>
+      </c>
+      <c r="H2243" s="2">
+        <v>30</v>
+      </c>
+      <c r="I2243" s="2">
+        <v>100</v>
+      </c>
+      <c r="J2243" s="2">
+        <v>220.5</v>
+      </c>
+      <c r="K2243" s="2">
+        <v>218.5</v>
+      </c>
+      <c r="L2243" s="2">
+        <v>185</v>
+      </c>
+      <c r="M2243" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2244" s="2">
+        <v>911</v>
+      </c>
+      <c r="B2244" s="2">
+        <v>717</v>
+      </c>
+      <c r="C2244" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2244" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2244" s="2">
+        <v>26</v>
+      </c>
+      <c r="F2244" s="2">
+        <v>24</v>
+      </c>
+      <c r="G2244" s="2">
+        <v>22</v>
+      </c>
+      <c r="H2244" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2244" s="2">
+        <v>92</v>
+      </c>
+      <c r="J2244" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2244" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2244" s="2">
+        <v>-155</v>
+      </c>
+      <c r="M2244" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2245" s="2">
+        <v>911</v>
+      </c>
+      <c r="B2245" s="2">
+        <v>718</v>
+      </c>
+      <c r="C2245" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2245" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2245" s="2">
+        <v>27</v>
+      </c>
+      <c r="F2245" s="2">
+        <v>19</v>
+      </c>
+      <c r="G2245" s="2">
+        <v>25</v>
+      </c>
+      <c r="H2245" s="2">
+        <v>16</v>
+      </c>
+      <c r="I2245" s="2">
+        <v>87</v>
+      </c>
+      <c r="J2245" s="2">
+        <v>209</v>
+      </c>
+      <c r="K2245" s="2">
+        <v>204.5</v>
+      </c>
+      <c r="L2245" s="2">
+        <v>135</v>
+      </c>
+      <c r="M2245" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2246" s="2">
+        <v>911</v>
+      </c>
+      <c r="B2246" s="2">
+        <v>719</v>
+      </c>
+      <c r="C2246" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2246" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2246" s="2">
+        <v>23</v>
+      </c>
+      <c r="F2246" s="2">
+        <v>21</v>
+      </c>
+      <c r="G2246" s="2">
+        <v>29</v>
+      </c>
+      <c r="H2246" s="2">
+        <v>38</v>
+      </c>
+      <c r="I2246" s="2">
+        <v>111</v>
+      </c>
+      <c r="J2246" s="2">
+        <v>217.5</v>
+      </c>
+      <c r="K2246" s="2">
+        <v>216</v>
+      </c>
+      <c r="L2246" s="2">
+        <v>330</v>
+      </c>
+      <c r="M2246" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2247" s="2">
+        <v>911</v>
+      </c>
+      <c r="B2247" s="2">
+        <v>720</v>
+      </c>
+      <c r="C2247" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2247" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2247" s="2">
+        <v>28</v>
+      </c>
+      <c r="F2247" s="2">
+        <v>28</v>
+      </c>
+      <c r="G2247" s="2">
+        <v>24</v>
+      </c>
+      <c r="H2247" s="2">
+        <v>25</v>
+      </c>
+      <c r="I2247" s="2">
+        <v>105</v>
+      </c>
+      <c r="J2247" s="2">
+        <v>8</v>
+      </c>
+      <c r="K2247" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="L2247" s="2">
+        <v>-400</v>
+      </c>
+      <c r="M2247" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2248" s="2">
+        <v>912</v>
+      </c>
+      <c r="B2248" s="2">
+        <v>723</v>
+      </c>
+      <c r="C2248" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2248" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2248" s="2">
+        <v>20</v>
+      </c>
+      <c r="F2248" s="2">
+        <v>31</v>
+      </c>
+      <c r="G2248" s="2">
+        <v>18</v>
+      </c>
+      <c r="H2248" s="2">
+        <v>27</v>
+      </c>
+      <c r="I2248" s="2">
+        <v>96</v>
+      </c>
+      <c r="J2248" s="2">
+        <v>214.5</v>
+      </c>
+      <c r="K2248" s="2">
+        <v>218</v>
+      </c>
+      <c r="L2248" s="2">
+        <v>210</v>
+      </c>
+      <c r="M2248" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2249" s="2">
+        <v>912</v>
+      </c>
+      <c r="B2249" s="2">
+        <v>724</v>
+      </c>
+      <c r="C2249" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2249" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2249" s="2">
+        <v>35</v>
+      </c>
+      <c r="F2249" s="2">
+        <v>27</v>
+      </c>
+      <c r="G2249" s="2">
+        <v>33</v>
+      </c>
+      <c r="H2249" s="2">
+        <v>24</v>
+      </c>
+      <c r="I2249" s="2">
+        <v>119</v>
+      </c>
+      <c r="J2249" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K2249" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="L2249" s="2">
+        <v>-260</v>
+      </c>
+      <c r="M2249" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2250" s="2">
+        <v>913</v>
+      </c>
+      <c r="B2250" s="2">
+        <v>725</v>
+      </c>
+      <c r="C2250" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2250" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2250" s="2">
+        <v>34</v>
+      </c>
+      <c r="F2250" s="2">
+        <v>29</v>
+      </c>
+      <c r="G2250" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2250" s="2">
+        <v>19</v>
+      </c>
+      <c r="I2250" s="2">
+        <v>98</v>
+      </c>
+      <c r="J2250" s="2">
+        <v>8</v>
+      </c>
+      <c r="K2250" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="L2250" s="2">
+        <v>-400</v>
+      </c>
+      <c r="M2250" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2251" s="2">
+        <v>913</v>
+      </c>
+      <c r="B2251" s="2">
+        <v>726</v>
+      </c>
+      <c r="C2251" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2251" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2251" s="2">
+        <v>26</v>
+      </c>
+      <c r="F2251" s="2">
+        <v>21</v>
+      </c>
+      <c r="G2251" s="2">
+        <v>30</v>
+      </c>
+      <c r="H2251" s="2">
+        <v>34</v>
+      </c>
+      <c r="I2251" s="2">
+        <v>111</v>
+      </c>
+      <c r="J2251" s="2">
+        <v>214.5</v>
+      </c>
+      <c r="K2251" s="2">
+        <v>214.5</v>
+      </c>
+      <c r="L2251" s="2">
+        <v>330</v>
+      </c>
+      <c r="M2251" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2252" s="2">
+        <v>915</v>
+      </c>
+      <c r="B2252" s="2">
+        <v>729</v>
+      </c>
+      <c r="C2252" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2252" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2252" s="2">
+        <v>24</v>
+      </c>
+      <c r="F2252" s="2">
+        <v>30</v>
+      </c>
+      <c r="G2252" s="2">
+        <v>28</v>
+      </c>
+      <c r="H2252" s="2">
+        <v>22</v>
+      </c>
+      <c r="I2252" s="2">
+        <v>104</v>
+      </c>
+      <c r="J2252" s="2">
+        <v>211.5</v>
+      </c>
+      <c r="K2252" s="2">
+        <v>207.5</v>
+      </c>
+      <c r="L2252" s="2">
+        <v>280</v>
+      </c>
+      <c r="M2252" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2253" s="2">
+        <v>915</v>
+      </c>
+      <c r="B2253" s="2">
+        <v>730</v>
+      </c>
+      <c r="C2253" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2253" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2253" s="2">
+        <v>24</v>
+      </c>
+      <c r="F2253" s="2">
+        <v>32</v>
+      </c>
+      <c r="G2253" s="2">
+        <v>18</v>
+      </c>
+      <c r="H2253" s="2">
+        <v>15</v>
+      </c>
+      <c r="I2253" s="2">
+        <v>89</v>
+      </c>
+      <c r="J2253" s="2">
+        <v>7</v>
+      </c>
+      <c r="K2253" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="L2253" s="2">
+        <v>-340</v>
+      </c>
+      <c r="M2253" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2254" s="2">
+        <v>915</v>
+      </c>
+      <c r="B2254" s="2">
+        <v>731</v>
+      </c>
+      <c r="C2254" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2254" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2254" s="2">
+        <v>18</v>
+      </c>
+      <c r="F2254" s="2">
+        <v>37</v>
+      </c>
+      <c r="G2254" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2254" s="2">
+        <v>35</v>
+      </c>
+      <c r="I2254" s="2">
+        <v>117</v>
+      </c>
+      <c r="J2254" s="2">
+        <v>211.5</v>
+      </c>
+      <c r="K2254" s="2">
+        <v>209.5</v>
+      </c>
+      <c r="L2254" s="2">
+        <v>115</v>
+      </c>
+      <c r="M2254" s="2">
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2255" s="2">
+        <v>915</v>
+      </c>
+      <c r="B2255" s="2">
+        <v>732</v>
+      </c>
+      <c r="C2255" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2255" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2255" s="2">
+        <v>26</v>
+      </c>
+      <c r="F2255" s="2">
+        <v>29</v>
+      </c>
+      <c r="G2255" s="2">
+        <v>28</v>
+      </c>
+      <c r="H2255" s="2">
+        <v>23</v>
+      </c>
+      <c r="I2255" s="2">
+        <v>114</v>
+      </c>
+      <c r="J2255" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K2255" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2255" s="2">
+        <v>-135</v>
+      </c>
+      <c r="M2255" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2256" s="2">
+        <v>917</v>
+      </c>
+      <c r="B2256" s="2">
+        <v>701</v>
+      </c>
+      <c r="C2256" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2256" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2256" s="2">
+        <v>28</v>
+      </c>
+      <c r="F2256" s="2">
+        <v>19</v>
+      </c>
+      <c r="G2256" s="2">
+        <v>37</v>
+      </c>
+      <c r="H2256" s="2">
+        <v>22</v>
+      </c>
+      <c r="I2256" s="2">
+        <v>106</v>
+      </c>
+      <c r="J2256" s="2">
+        <v>210</v>
+      </c>
+      <c r="K2256" s="2">
+        <v>208</v>
+      </c>
+      <c r="L2256" s="2">
+        <v>135</v>
+      </c>
+      <c r="M2256" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2257" s="2">
+        <v>917</v>
+      </c>
+      <c r="B2257" s="2">
+        <v>702</v>
+      </c>
+      <c r="C2257" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2257" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2257" s="2">
+        <v>31</v>
+      </c>
+      <c r="F2257" s="2">
+        <v>29</v>
+      </c>
+      <c r="G2257" s="2">
+        <v>17</v>
+      </c>
+      <c r="H2257" s="2">
+        <v>24</v>
+      </c>
+      <c r="I2257" s="2">
+        <v>101</v>
+      </c>
+      <c r="J2257" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K2257" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2257" s="2">
+        <v>-155</v>
+      </c>
+      <c r="M2257" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2258" s="2">
+        <v>918</v>
+      </c>
+      <c r="B2258" s="2">
+        <v>733</v>
+      </c>
+      <c r="C2258" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2258" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2258" s="2">
+        <v>38</v>
+      </c>
+      <c r="F2258" s="2">
+        <v>21</v>
+      </c>
+      <c r="G2258" s="2">
+        <v>20</v>
+      </c>
+      <c r="H2258" s="2">
+        <v>35</v>
+      </c>
+      <c r="I2258" s="2">
+        <v>114</v>
+      </c>
+      <c r="J2258" s="2">
+        <v>209.5</v>
+      </c>
+      <c r="K2258" s="2">
+        <v>210.5</v>
+      </c>
+      <c r="L2258" s="2">
+        <v>245</v>
+      </c>
+      <c r="M2258" s="2">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2259" s="2">
+        <v>918</v>
+      </c>
+      <c r="B2259" s="2">
+        <v>734</v>
+      </c>
+      <c r="C2259" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2259" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2259" s="2">
+        <v>36</v>
+      </c>
+      <c r="F2259" s="2">
+        <v>34</v>
+      </c>
+      <c r="G2259" s="2">
+        <v>33</v>
+      </c>
+      <c r="H2259" s="2">
+        <v>23</v>
+      </c>
+      <c r="I2259" s="2">
+        <v>126</v>
+      </c>
+      <c r="J2259" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2259" s="2">
+        <v>7</v>
+      </c>
+      <c r="L2259" s="2">
+        <v>-290</v>
+      </c>
+      <c r="M2259" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2260" s="2">
+        <v>919</v>
+      </c>
+      <c r="B2260" s="2">
+        <v>703</v>
+      </c>
+      <c r="C2260" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2260" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2260" s="2">
+        <v>31</v>
+      </c>
+      <c r="F2260" s="2">
+        <v>31</v>
+      </c>
+      <c r="G2260" s="2">
+        <v>27</v>
+      </c>
+      <c r="H2260" s="2">
+        <v>28</v>
+      </c>
+      <c r="I2260" s="2">
+        <v>117</v>
+      </c>
+      <c r="J2260" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K2260" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="L2260" s="2">
+        <v>-165</v>
+      </c>
+      <c r="M2260" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2261" s="2">
+        <v>919</v>
+      </c>
+      <c r="B2261" s="2">
+        <v>704</v>
+      </c>
+      <c r="C2261" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2261" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2261" s="2">
+        <v>22</v>
+      </c>
+      <c r="F2261" s="2">
+        <v>28</v>
+      </c>
+      <c r="G2261" s="2">
+        <v>24</v>
+      </c>
+      <c r="H2261" s="2">
+        <v>32</v>
+      </c>
+      <c r="I2261" s="2">
+        <v>106</v>
+      </c>
+      <c r="J2261" s="2">
+        <v>207.5</v>
+      </c>
+      <c r="K2261" s="2">
+        <v>208.5</v>
+      </c>
+      <c r="L2261" s="2">
+        <v>145</v>
+      </c>
+      <c r="M2261" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2262" s="2">
+        <v>920</v>
+      </c>
+      <c r="B2262" s="2">
+        <v>705</v>
+      </c>
+      <c r="C2262" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2262" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2262" s="2">
+        <v>21</v>
+      </c>
+      <c r="F2262" s="2">
+        <v>29</v>
+      </c>
+      <c r="G2262" s="2">
+        <v>28</v>
+      </c>
+      <c r="H2262" s="2">
+        <v>25</v>
+      </c>
+      <c r="I2262" s="2">
+        <v>103</v>
+      </c>
+      <c r="J2262" s="2">
+        <v>214</v>
+      </c>
+      <c r="K2262" s="2">
+        <v>216.5</v>
+      </c>
+      <c r="L2262" s="2">
+        <v>250</v>
+      </c>
+      <c r="M2262" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2263" s="2">
+        <v>920</v>
+      </c>
+      <c r="B2263" s="2">
+        <v>706</v>
+      </c>
+      <c r="C2263" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2263" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2263" s="2">
+        <v>29</v>
+      </c>
+      <c r="F2263" s="2">
+        <v>31</v>
+      </c>
+      <c r="G2263" s="2">
+        <v>22</v>
+      </c>
+      <c r="H2263" s="2">
+        <v>23</v>
+      </c>
+      <c r="I2263" s="2">
+        <v>105</v>
+      </c>
+      <c r="J2263" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="K2263" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="L2263" s="2">
+        <v>-300</v>
+      </c>
+      <c r="M2263" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2264" s="2">
+        <v>922</v>
+      </c>
+      <c r="B2264" s="2">
+        <v>707</v>
+      </c>
+      <c r="C2264" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2264" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2264" s="2">
+        <v>27</v>
+      </c>
+      <c r="F2264" s="2">
+        <v>26</v>
+      </c>
+      <c r="G2264" s="2">
+        <v>22</v>
+      </c>
+      <c r="H2264" s="2">
+        <v>31</v>
+      </c>
+      <c r="I2264" s="2">
+        <v>106</v>
+      </c>
+      <c r="J2264" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K2264" s="2">
+        <v>6</v>
+      </c>
+      <c r="L2264" s="2">
+        <v>-255</v>
+      </c>
+      <c r="M2264" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2265" s="2">
+        <v>922</v>
+      </c>
+      <c r="B2265" s="2">
+        <v>708</v>
+      </c>
+      <c r="C2265" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2265" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2265" s="2">
+        <v>29</v>
+      </c>
+      <c r="F2265" s="2">
+        <v>34</v>
+      </c>
+      <c r="G2265" s="2">
+        <v>30</v>
+      </c>
+      <c r="H2265" s="2">
+        <v>21</v>
+      </c>
+      <c r="I2265" s="2">
+        <v>114</v>
+      </c>
+      <c r="J2265" s="2">
+        <v>213.5</v>
+      </c>
+      <c r="K2265" s="2">
+        <v>214.5</v>
+      </c>
+      <c r="L2265" s="2">
+        <v>215</v>
+      </c>
+      <c r="M2265" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2266" s="2">
+        <v>923</v>
+      </c>
+      <c r="B2266" s="2">
+        <v>713</v>
+      </c>
+      <c r="C2266" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2266" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2266" s="2">
+        <v>23</v>
+      </c>
+      <c r="F2266" s="2">
+        <v>21</v>
+      </c>
+      <c r="G2266" s="2">
+        <v>32</v>
+      </c>
+      <c r="H2266" s="2">
+        <v>33</v>
+      </c>
+      <c r="I2266" s="2">
+        <v>109</v>
+      </c>
+      <c r="J2266" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K2266" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="L2266" s="2">
+        <v>-165</v>
+      </c>
+      <c r="M2266" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2267" s="2">
+        <v>923</v>
+      </c>
+      <c r="B2267" s="2">
+        <v>714</v>
+      </c>
+      <c r="C2267" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2267" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2267" s="2">
+        <v>24</v>
+      </c>
+      <c r="F2267" s="2">
+        <v>26</v>
+      </c>
+      <c r="G2267" s="2">
+        <v>27</v>
+      </c>
+      <c r="H2267" s="2">
+        <v>35</v>
+      </c>
+      <c r="I2267" s="2">
+        <v>112</v>
+      </c>
+      <c r="J2267" s="2">
+        <v>210.5</v>
+      </c>
+      <c r="K2267" s="2">
+        <v>212</v>
+      </c>
+      <c r="L2267" s="2">
+        <v>145</v>
+      </c>
+      <c r="M2267" s="2">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2268" s="2">
+        <v>924</v>
+      </c>
+      <c r="B2268" s="2">
+        <v>709</v>
+      </c>
+      <c r="C2268" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2268" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2268" s="2">
+        <v>37</v>
+      </c>
+      <c r="F2268" s="2">
+        <v>23</v>
+      </c>
+      <c r="G2268" s="2">
+        <v>27</v>
+      </c>
+      <c r="H2268" s="2">
+        <v>27</v>
+      </c>
+      <c r="I2268" s="2">
+        <v>114</v>
+      </c>
+      <c r="J2268" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K2268" s="2">
+        <v>6</v>
+      </c>
+      <c r="L2268" s="2">
+        <v>-250</v>
+      </c>
+      <c r="M2268" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2269" s="2">
+        <v>924</v>
+      </c>
+      <c r="B2269" s="2">
+        <v>710</v>
+      </c>
+      <c r="C2269" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2269" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2269" s="2">
+        <v>30</v>
+      </c>
+      <c r="F2269" s="2">
+        <v>25</v>
+      </c>
+      <c r="G2269" s="2">
+        <v>29</v>
+      </c>
+      <c r="H2269" s="2">
+        <v>24</v>
+      </c>
+      <c r="I2269" s="2">
+        <v>108</v>
+      </c>
+      <c r="J2269" s="2">
+        <v>215.5</v>
+      </c>
+      <c r="K2269" s="2">
+        <v>213.5</v>
+      </c>
+      <c r="L2269" s="2">
+        <v>210</v>
+      </c>
+      <c r="M2269" s="2">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2270" s="2">
+        <v>925</v>
+      </c>
+      <c r="B2270" s="2">
+        <v>715</v>
+      </c>
+      <c r="C2270" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2270" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2270" s="2">
+        <v>26</v>
+      </c>
+      <c r="F2270" s="2">
+        <v>32</v>
+      </c>
+      <c r="G2270" s="2">
+        <v>25</v>
+      </c>
+      <c r="H2270" s="2">
+        <v>25</v>
+      </c>
+      <c r="I2270" s="2">
+        <v>108</v>
+      </c>
+      <c r="J2270" s="2">
+        <v>214</v>
+      </c>
+      <c r="K2270" s="2">
+        <v>213.5</v>
+      </c>
+      <c r="L2270" s="2">
+        <v>140</v>
+      </c>
+      <c r="M2270" s="2">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2271" s="2">
+        <v>925</v>
+      </c>
+      <c r="B2271" s="2">
+        <v>716</v>
+      </c>
+      <c r="C2271" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2271" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2271" s="2">
+        <v>18</v>
+      </c>
+      <c r="F2271" s="2">
+        <v>33</v>
+      </c>
+      <c r="G2271" s="2">
+        <v>41</v>
+      </c>
+      <c r="H2271" s="2">
+        <v>29</v>
+      </c>
+      <c r="I2271" s="2">
+        <v>121</v>
+      </c>
+      <c r="J2271" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2271" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="L2271" s="2">
+        <v>-160</v>
+      </c>
+      <c r="M2271" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2272" s="2">
+        <v>926</v>
+      </c>
+      <c r="B2272" s="2">
+        <v>711</v>
+      </c>
+      <c r="C2272" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2272" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2272" s="2">
+        <v>30</v>
+      </c>
+      <c r="F2272" s="2">
+        <v>21</v>
+      </c>
+      <c r="G2272" s="2">
+        <v>33</v>
+      </c>
+      <c r="H2272" s="2">
+        <v>23</v>
+      </c>
+      <c r="I2272" s="2">
+        <v>107</v>
+      </c>
+      <c r="J2272" s="2">
+        <v>215.5</v>
+      </c>
+      <c r="K2272" s="2">
+        <v>216.5</v>
+      </c>
+      <c r="L2272" s="2">
+        <v>175</v>
+      </c>
+      <c r="M2272" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2273" s="2">
+        <v>926</v>
+      </c>
+      <c r="B2273" s="2">
+        <v>712</v>
+      </c>
+      <c r="C2273" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2273" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2273" s="2">
+        <v>33</v>
+      </c>
+      <c r="F2273" s="2">
+        <v>28</v>
+      </c>
+      <c r="G2273" s="2">
+        <v>26</v>
+      </c>
+      <c r="H2273" s="2">
+        <v>30</v>
+      </c>
+      <c r="I2273" s="2">
+        <v>117</v>
+      </c>
+      <c r="J2273" s="2">
+        <v>6</v>
+      </c>
+      <c r="K2273" s="2">
+        <v>5</v>
+      </c>
+      <c r="L2273" s="2">
+        <v>-200</v>
+      </c>
+      <c r="M2273" s="2">
+        <v>105.5</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2274" s="2">
+        <v>927</v>
+      </c>
+      <c r="B2274" s="2">
+        <v>717</v>
+      </c>
+      <c r="C2274" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2274" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2274" s="2">
+        <v>27</v>
+      </c>
+      <c r="F2274" s="2">
+        <v>33</v>
+      </c>
+      <c r="G2274" s="2">
+        <v>26</v>
+      </c>
+      <c r="H2274" s="2">
+        <v>27</v>
+      </c>
+      <c r="I2274" s="2">
+        <v>113</v>
+      </c>
+      <c r="J2274" s="2">
+        <v>3</v>
+      </c>
+      <c r="K2274" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2274" s="2">
+        <v>-150</v>
+      </c>
+      <c r="M2274" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2275" s="2">
+        <v>927</v>
+      </c>
+      <c r="B2275" s="2">
+        <v>718</v>
+      </c>
+      <c r="C2275" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2275" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2275" s="2">
+        <v>33</v>
+      </c>
+      <c r="F2275" s="2">
+        <v>29</v>
+      </c>
+      <c r="G2275" s="2">
+        <v>26</v>
+      </c>
+      <c r="H2275" s="2">
+        <v>37</v>
+      </c>
+      <c r="I2275" s="2">
+        <v>125</v>
+      </c>
+      <c r="J2275" s="2">
+        <v>214.5</v>
+      </c>
+      <c r="K2275" s="2">
+        <v>216</v>
+      </c>
+      <c r="L2275" s="2">
+        <v>130</v>
+      </c>
+      <c r="M2275" s="2">
+        <v>108.5</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2276" s="2">
+        <v>930</v>
+      </c>
+      <c r="B2276" s="2">
+        <v>701</v>
+      </c>
+      <c r="C2276" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2276" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2276" s="2">
+        <v>28</v>
+      </c>
+      <c r="F2276" s="2">
+        <v>20</v>
+      </c>
+      <c r="G2276" s="2">
+        <v>19</v>
+      </c>
+      <c r="H2276" s="2">
+        <v>31</v>
+      </c>
+      <c r="I2276" s="2">
+        <v>98</v>
+      </c>
+      <c r="J2276" s="2">
+        <v>217.5</v>
+      </c>
+      <c r="K2276" s="2">
+        <v>217.5</v>
+      </c>
+      <c r="L2276" s="2">
+        <v>165</v>
+      </c>
+      <c r="M2276" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2277" s="2">
+        <v>930</v>
+      </c>
+      <c r="B2277" s="2">
+        <v>702</v>
+      </c>
+      <c r="C2277" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2277" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2277" s="2">
+        <v>31</v>
+      </c>
+      <c r="F2277" s="2">
+        <v>34</v>
+      </c>
+      <c r="G2277" s="2">
+        <v>28</v>
+      </c>
+      <c r="H2277" s="2">
+        <v>23</v>
+      </c>
+      <c r="I2277" s="2">
+        <v>116</v>
+      </c>
+      <c r="J2277" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K2277" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="L2277" s="2">
+        <v>-185</v>
+      </c>
+      <c r="M2277" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2278" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B2278" s="2">
+        <v>715</v>
+      </c>
+      <c r="C2278" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2278" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2278" s="2">
+        <v>23</v>
+      </c>
+      <c r="F2278" s="2">
+        <v>31</v>
+      </c>
+      <c r="G2278" s="2">
+        <v>39</v>
+      </c>
+      <c r="H2278" s="2">
+        <v>21</v>
+      </c>
+      <c r="I2278" s="2">
+        <v>114</v>
+      </c>
+      <c r="J2278" s="2">
+        <v>216</v>
+      </c>
+      <c r="K2278" s="2">
+        <v>216.5</v>
+      </c>
+      <c r="L2278" s="2">
+        <v>450</v>
+      </c>
+      <c r="M2278" s="2">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2279" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B2279" s="2">
+        <v>716</v>
+      </c>
+      <c r="C2279" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2279" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2279" s="2">
+        <v>29</v>
+      </c>
+      <c r="F2279" s="2">
+        <v>39</v>
+      </c>
+      <c r="G2279" s="2">
+        <v>35</v>
+      </c>
+      <c r="H2279" s="2">
+        <v>21</v>
+      </c>
+      <c r="I2279" s="2">
+        <v>124</v>
+      </c>
+      <c r="J2279" s="2">
+        <v>7</v>
+      </c>
+      <c r="K2279" s="2">
+        <v>10</v>
+      </c>
+      <c r="L2279" s="2">
+        <v>-600</v>
+      </c>
+      <c r="M2279" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2280" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B2280" s="2">
+        <v>705</v>
+      </c>
+      <c r="C2280" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2280" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2280" s="2">
+        <v>23</v>
+      </c>
+      <c r="F2280" s="2">
+        <v>31</v>
+      </c>
+      <c r="G2280" s="2">
+        <v>26</v>
+      </c>
+      <c r="H2280" s="2">
+        <v>24</v>
+      </c>
+      <c r="I2280" s="2">
+        <v>104</v>
+      </c>
+      <c r="J2280" s="2">
+        <v>-10</v>
+      </c>
+      <c r="K2280" s="2">
+        <v>-9.5</v>
+      </c>
+      <c r="L2280" s="2">
+        <v>-420</v>
+      </c>
+      <c r="M2280" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2281" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B2281" s="2">
+        <v>706</v>
+      </c>
+      <c r="C2281" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2281" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2281" s="2">
+        <v>26</v>
+      </c>
+      <c r="F2281" s="2">
+        <v>32</v>
+      </c>
+      <c r="G2281" s="2">
+        <v>27</v>
+      </c>
+      <c r="H2281" s="2">
+        <v>30</v>
+      </c>
+      <c r="I2281" s="2">
+        <v>115</v>
+      </c>
+      <c r="J2281" s="2">
+        <v>218.5</v>
+      </c>
+      <c r="K2281" s="2">
+        <v>220</v>
+      </c>
+      <c r="L2281" s="2">
+        <v>350</v>
+      </c>
+      <c r="M2281" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2282" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B2282" s="2">
+        <v>707</v>
+      </c>
+      <c r="C2282" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2282" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2282" s="2">
+        <v>27</v>
+      </c>
+      <c r="F2282" s="2">
+        <v>22</v>
+      </c>
+      <c r="G2282" s="2">
+        <v>26</v>
+      </c>
+      <c r="H2282" s="2">
+        <v>27</v>
+      </c>
+      <c r="I2282" s="2">
+        <v>102</v>
+      </c>
+      <c r="J2282" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="K2282" s="2">
+        <v>7</v>
+      </c>
+      <c r="L2282" s="2">
+        <v>-330</v>
+      </c>
+      <c r="M2282" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2283" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B2283" s="2">
+        <v>708</v>
+      </c>
+      <c r="C2283" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2283" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2283" s="2">
+        <v>22</v>
+      </c>
+      <c r="F2283" s="2">
+        <v>25</v>
+      </c>
+      <c r="G2283" s="2">
+        <v>23</v>
+      </c>
+      <c r="H2283" s="2">
+        <v>26</v>
+      </c>
+      <c r="I2283" s="2">
+        <v>96</v>
+      </c>
+      <c r="J2283" s="2">
+        <v>219.5</v>
+      </c>
+      <c r="K2283" s="2">
+        <v>218</v>
+      </c>
+      <c r="L2283" s="2">
+        <v>270</v>
+      </c>
+      <c r="M2283" s="2">
+        <v>106.5</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2284" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B2284" s="2">
+        <v>709</v>
+      </c>
+      <c r="C2284" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2284" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2284" s="2">
+        <v>25</v>
+      </c>
+      <c r="F2284" s="2">
+        <v>35</v>
+      </c>
+      <c r="G2284" s="2">
+        <v>28</v>
+      </c>
+      <c r="H2284" s="2">
+        <v>23</v>
+      </c>
+      <c r="I2284" s="2">
+        <v>111</v>
+      </c>
+      <c r="J2284" s="2">
+        <v>217</v>
+      </c>
+      <c r="K2284" s="2">
+        <v>215</v>
+      </c>
+      <c r="L2284" s="2">
+        <v>280</v>
+      </c>
+      <c r="M2284" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2285" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B2285" s="2">
+        <v>710</v>
+      </c>
+      <c r="C2285" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2285" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2285" s="2">
+        <v>24</v>
+      </c>
+      <c r="F2285" s="2">
+        <v>32</v>
+      </c>
+      <c r="G2285" s="2">
+        <v>26</v>
+      </c>
+      <c r="H2285" s="2">
+        <v>26</v>
+      </c>
+      <c r="I2285" s="2">
+        <v>108</v>
+      </c>
+      <c r="J2285" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="K2285" s="2">
+        <v>7</v>
+      </c>
+      <c r="L2285" s="2">
+        <v>-340</v>
+      </c>
+      <c r="M2285" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2286" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B2286" s="2">
+        <v>711</v>
+      </c>
+      <c r="C2286" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2286" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2286" s="2">
+        <v>28</v>
+      </c>
+      <c r="F2286" s="2">
+        <v>36</v>
+      </c>
+      <c r="G2286" s="2">
+        <v>23</v>
+      </c>
+      <c r="H2286" s="2">
+        <v>19</v>
+      </c>
+      <c r="I2286" s="2">
+        <v>106</v>
+      </c>
+      <c r="J2286" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2286" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="L2286" s="2">
+        <v>-250</v>
+      </c>
+      <c r="M2286" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2287" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B2287" s="2">
+        <v>712</v>
+      </c>
+      <c r="C2287" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2287" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2287" s="2">
+        <v>20</v>
+      </c>
+      <c r="F2287" s="2">
+        <v>16</v>
+      </c>
+      <c r="G2287" s="2">
+        <v>22</v>
+      </c>
+      <c r="H2287" s="2">
+        <v>35</v>
+      </c>
+      <c r="I2287" s="2">
+        <v>93</v>
+      </c>
+      <c r="J2287" s="2">
+        <v>216.5</v>
+      </c>
+      <c r="K2287" s="2">
+        <v>215</v>
+      </c>
+      <c r="L2287" s="2">
+        <v>210</v>
+      </c>
+      <c r="M2287" s="2">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
